--- a/etf_dfs/EDEN.xlsx
+++ b/etf_dfs/EDEN.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EDEN</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>40909</v>
       </c>
@@ -456,13 +462,13 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F2">
-        <v>23.26592826843262</v>
+        <v>23.26592063903809</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>40940</v>
       </c>
@@ -488,7 +494,7 @@
         <v>0.1252371608837328</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>40969</v>
       </c>
@@ -505,7 +511,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F4">
-        <v>25.99426078796387</v>
+        <v>25.99425888061523</v>
       </c>
       <c r="G4">
         <v>9100</v>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>-0.007082599904703279</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.093564200138485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>41000</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.0129075799549323</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.07132795283941339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>41030</v>
       </c>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.09121392827601527</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.08911439465925221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>41061</v>
       </c>
@@ -583,7 +598,7 @@
         <v>27.26000022888184</v>
       </c>
       <c r="F7">
-        <v>24.3504524230957</v>
+        <v>24.3504467010498</v>
       </c>
       <c r="G7">
         <v>3700</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>0.005904053326933223</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.07719666426828323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>41091</v>
       </c>
@@ -609,7 +627,7 @@
         <v>27.8799991607666</v>
       </c>
       <c r="F8">
-        <v>24.90427207946777</v>
+        <v>24.90427017211914</v>
       </c>
       <c r="G8">
         <v>2000</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.02274390780187452</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.0692694520020858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>41122</v>
       </c>
@@ -635,7 +656,7 @@
         <v>29.1200008392334</v>
       </c>
       <c r="F9">
-        <v>26.01192855834961</v>
+        <v>26.01192283630371</v>
       </c>
       <c r="G9">
         <v>31800</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.04447638865828085</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.06445687347845433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>41153</v>
       </c>
@@ -661,7 +685,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F10">
-        <v>27.03917694091797</v>
+        <v>27.03918647766113</v>
       </c>
       <c r="G10">
         <v>18900</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.03949174400369104</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.06024392750331733</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>41183</v>
       </c>
@@ -687,7 +714,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F11">
-        <v>27.03917694091797</v>
+        <v>27.03918647766113</v>
       </c>
       <c r="G11">
         <v>2000</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.05670997255250021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>41214</v>
       </c>
@@ -713,7 +743,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F12">
-        <v>27.44114685058594</v>
+        <v>27.44115447998047</v>
       </c>
       <c r="G12">
         <v>5100</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.01486616613100855</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.05347069850742251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>41244</v>
       </c>
@@ -739,7 +772,7 @@
         <v>31.97999954223633</v>
       </c>
       <c r="F13">
-        <v>28.56666374206543</v>
+        <v>28.56666564941406</v>
       </c>
       <c r="G13">
         <v>3800</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>0.04101563336735148</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.05125239543580462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>41275</v>
       </c>
@@ -765,7 +801,7 @@
         <v>34.81000137329102</v>
       </c>
       <c r="F14">
-        <v>31.09461975097656</v>
+        <v>31.09460830688477</v>
       </c>
       <c r="G14">
         <v>600</v>
@@ -774,13 +810,16 @@
         <v>0.08849286652793964</v>
       </c>
       <c r="I14">
-        <v>0.3210626515880686</v>
+        <v>0.05283118690159319</v>
       </c>
       <c r="J14">
         <v>0.3210626515880686</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.3210626515880686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>41306</v>
       </c>
@@ -797,7 +836,7 @@
         <v>34.72999954223633</v>
       </c>
       <c r="F15">
-        <v>31.02314758300781</v>
+        <v>31.02314186096191</v>
       </c>
       <c r="G15">
         <v>56800</v>
@@ -806,13 +845,16 @@
         <v>-0.002298242685967566</v>
       </c>
       <c r="I15">
-        <v>0.1713322087374065</v>
+        <v>0.0511347382158598</v>
       </c>
       <c r="J15">
         <v>0.1713322087374065</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.1713322087374065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>41334</v>
       </c>
@@ -829,7 +871,7 @@
         <v>34.56000137329102</v>
       </c>
       <c r="F16">
-        <v>30.87129783630371</v>
+        <v>30.87129211425781</v>
       </c>
       <c r="G16">
         <v>7400</v>
@@ -838,13 +880,16 @@
         <v>-0.004894850883558788</v>
       </c>
       <c r="I16">
-        <v>0.1739130688299524</v>
+        <v>0.04967743575642662</v>
       </c>
       <c r="J16">
         <v>0.1739130688299524</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.1739130688299524</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>41365</v>
       </c>
@@ -870,13 +915,16 @@
         <v>0.03674769697043945</v>
       </c>
       <c r="I17">
-        <v>0.2015426625666132</v>
+        <v>0.04804960903249037</v>
       </c>
       <c r="J17">
         <v>0.2015426625666132</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.2015426625666132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>41395</v>
       </c>
@@ -893,7 +941,7 @@
         <v>35.90999984741211</v>
       </c>
       <c r="F18">
-        <v>32.07719802856445</v>
+        <v>32.07720947265625</v>
       </c>
       <c r="G18">
         <v>25300</v>
@@ -902,13 +950,16 @@
         <v>0.00223271036196504</v>
       </c>
       <c r="I18">
-        <v>0.3250922266394665</v>
+        <v>0.04667631531049968</v>
       </c>
       <c r="J18">
         <v>0.3250922266394665</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.3250922266394665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>41426</v>
       </c>
@@ -925,7 +976,7 @@
         <v>34.29999923706055</v>
       </c>
       <c r="F19">
-        <v>30.6390438079834</v>
+        <v>30.63904762268066</v>
       </c>
       <c r="G19">
         <v>8700</v>
@@ -934,13 +985,16 @@
         <v>-0.04483432517941344</v>
       </c>
       <c r="I19">
-        <v>0.2582538132453818</v>
+        <v>0.04789472370680067</v>
       </c>
       <c r="J19">
         <v>0.2582538132453818</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.2582538132453818</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>41456</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>37.43000030517578</v>
       </c>
       <c r="F20">
-        <v>33.43496322631836</v>
+        <v>33.43497085571289</v>
       </c>
       <c r="G20">
         <v>700</v>
@@ -966,13 +1020,16 @@
         <v>0.09125367748502233</v>
       </c>
       <c r="I20">
-        <v>0.3425395061649847</v>
+        <v>0.04967709086278745</v>
       </c>
       <c r="J20">
         <v>0.3425395061649847</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.3425395061649847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>41487</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>37.68999862670898</v>
       </c>
       <c r="F21">
-        <v>33.66721725463867</v>
+        <v>33.66722106933594</v>
       </c>
       <c r="G21">
         <v>800</v>
@@ -998,13 +1055,16 @@
         <v>0.006946254860095591</v>
       </c>
       <c r="I21">
-        <v>0.2942993660882463</v>
+        <v>0.04838250067088842</v>
       </c>
       <c r="J21">
         <v>0.2942993660882463</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.2942993660882463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>41518</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>40.45000076293945</v>
       </c>
       <c r="F22">
-        <v>36.13264465332031</v>
+        <v>36.13264083862305</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1030,13 +1090,16 @@
         <v>0.07322903254962165</v>
       </c>
       <c r="I22">
-        <v>0.3363065791617723</v>
+        <v>0.04856718942117204</v>
       </c>
       <c r="J22">
         <v>0.3363065791617723</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.3363065791617723</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>41548</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>41.70999908447266</v>
       </c>
       <c r="F23">
-        <v>37.25815582275391</v>
+        <v>37.25814437866211</v>
       </c>
       <c r="G23">
         <v>31800</v>
@@ -1062,13 +1125,16 @@
         <v>0.03114952528474668</v>
       </c>
       <c r="I23">
-        <v>0.3779318947375452</v>
+        <v>0.04737282009094167</v>
       </c>
       <c r="J23">
         <v>0.3779318947375452</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.3779318947375452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>41579</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>43.22999954223633</v>
       </c>
       <c r="F24">
-        <v>38.61591720581055</v>
+        <v>38.61591339111328</v>
       </c>
       <c r="G24">
         <v>2100</v>
@@ -1094,13 +1160,16 @@
         <v>0.036442111990588</v>
       </c>
       <c r="I24">
-        <v>0.407226579052804</v>
+        <v>0.04631777644252788</v>
       </c>
       <c r="J24">
         <v>0.407226579052804</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.407226579052804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>41609</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>45</v>
       </c>
       <c r="F25">
-        <v>40.21220397949219</v>
+        <v>40.21219253540039</v>
       </c>
       <c r="G25">
         <v>4300</v>
@@ -1126,13 +1195,16 @@
         <v>0.04094380005797493</v>
       </c>
       <c r="I25">
-        <v>0.4071294760516808</v>
+        <v>0.04539441846192326</v>
       </c>
       <c r="J25">
         <v>0.4071294760516808</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.4071294760516808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>41640</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F26">
-        <v>40.81984329223633</v>
+        <v>40.81984710693359</v>
       </c>
       <c r="G26">
         <v>2900</v>
@@ -1158,13 +1230,16 @@
         <v>0.01511111789279518</v>
       </c>
       <c r="I26">
-        <v>0.3122665470569355</v>
+        <v>0.04443806136380691</v>
       </c>
       <c r="J26">
         <v>0.3122665470569355</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.3122665470569355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>41671</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>50.9900016784668</v>
       </c>
       <c r="F27">
-        <v>45.56489181518555</v>
+        <v>45.56488800048828</v>
       </c>
       <c r="G27">
         <v>5200</v>
@@ -1190,13 +1265,16 @@
         <v>0.1162434618611279</v>
       </c>
       <c r="I27">
-        <v>0.4681831946601707</v>
+        <v>0.04724334390837787</v>
       </c>
       <c r="J27">
         <v>0.4681831946601707</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.4681831946601707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>41699</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>49.58000183105469</v>
       </c>
       <c r="F28">
-        <v>44.30490875244141</v>
+        <v>44.30490112304688</v>
       </c>
       <c r="G28">
         <v>6100</v>
@@ -1222,13 +1300,16 @@
         <v>-0.02765247697584516</v>
       </c>
       <c r="I28">
-        <v>0.4346064774572482</v>
+        <v>0.04754937944962202</v>
       </c>
       <c r="J28">
         <v>0.4346064774572482</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.4346064774572482</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>41730</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>50.90000152587891</v>
       </c>
       <c r="F29">
-        <v>45.48446655273438</v>
+        <v>45.48446273803711</v>
       </c>
       <c r="G29">
         <v>22500</v>
@@ -1254,13 +1335,16 @@
         <v>0.02662363142547175</v>
       </c>
       <c r="I29">
-        <v>0.42059723485034</v>
+        <v>0.04662636270103054</v>
       </c>
       <c r="J29">
         <v>0.42059723485034</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.42059723485034</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>41760</v>
       </c>
@@ -1277,7 +1361,7 @@
         <v>52.65000152587891</v>
       </c>
       <c r="F30">
-        <v>47.04827499389648</v>
+        <v>47.04827117919922</v>
       </c>
       <c r="G30">
         <v>9200</v>
@@ -1286,13 +1370,16 @@
         <v>0.03438113845851754</v>
       </c>
       <c r="I30">
-        <v>0.4661654622555835</v>
+        <v>0.0457841222496381</v>
       </c>
       <c r="J30">
         <v>0.4661654622555835</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.4661654622555835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>41791</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>53.15000152587891</v>
       </c>
       <c r="F31">
-        <v>47.8586311340332</v>
+        <v>47.85863876342773</v>
       </c>
       <c r="G31">
         <v>12100</v>
@@ -1318,13 +1405,16 @@
         <v>0.009496675888114314</v>
       </c>
       <c r="I31">
-        <v>0.5495627611691392</v>
+        <v>0.04506365079700764</v>
       </c>
       <c r="J31">
         <v>0.5495627611691392</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.5495627611691392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>41821</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>51.34000015258789</v>
       </c>
       <c r="F32">
-        <v>46.22883605957031</v>
+        <v>46.22883987426758</v>
       </c>
       <c r="G32">
         <v>28700</v>
@@ -1350,13 +1440,16 @@
         <v>-0.03405458741915035</v>
       </c>
       <c r="I32">
-        <v>0.3716270300294027</v>
+        <v>0.04559299911228007</v>
       </c>
       <c r="J32">
         <v>0.3716270300294027</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.3716270300294027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>41852</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>50.58000183105469</v>
       </c>
       <c r="F33">
-        <v>45.54449462890625</v>
+        <v>45.54449844360352</v>
       </c>
       <c r="G33">
         <v>51300</v>
@@ -1382,13 +1475,16 @@
         <v>-0.0148032395651424</v>
       </c>
       <c r="I33">
-        <v>0.3420006281244918</v>
+        <v>0.04535049898619727</v>
       </c>
       <c r="J33">
         <v>0.3420006281244918</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.3420006281244918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>41883</v>
       </c>
@@ -1414,13 +1510,16 @@
         <v>-0.03202852289316038</v>
       </c>
       <c r="I34">
-        <v>0.2103831436594217</v>
+        <v>0.04563244664400216</v>
       </c>
       <c r="J34">
         <v>0.2103831436594217</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.2103831436594217</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>41913</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>49.27999877929688</v>
       </c>
       <c r="F35">
-        <v>44.37390899658203</v>
+        <v>44.3739128112793</v>
       </c>
       <c r="G35">
         <v>256500</v>
@@ -1446,13 +1545,16 @@
         <v>0.00653594160147164</v>
       </c>
       <c r="I35">
-        <v>0.1814912457680273</v>
+        <v>0.04497982930991846</v>
       </c>
       <c r="J35">
         <v>0.1814912457680273</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.1814912457680273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>41944</v>
       </c>
@@ -1469,7 +1571,7 @@
         <v>49.02999877929688</v>
       </c>
       <c r="F36">
-        <v>44.1488037109375</v>
+        <v>44.1487922668457</v>
       </c>
       <c r="G36">
         <v>10800</v>
@@ -1478,13 +1580,16 @@
         <v>-0.005073052073715334</v>
       </c>
       <c r="I36">
-        <v>0.1341660721368703</v>
+        <v>0.0445031237068035</v>
       </c>
       <c r="J36">
         <v>0.1341660721368703</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.1341660721368703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>41974</v>
       </c>
@@ -1510,13 +1615,16 @@
         <v>-0.04160712118335752</v>
       </c>
       <c r="I37">
-        <v>0.04422225952148429</v>
+        <v>0.04503895296619311</v>
       </c>
       <c r="J37">
         <v>0.04422225952148429</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.04422225952148429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>42005</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>47.31999969482422</v>
       </c>
       <c r="F38">
-        <v>42.614501953125</v>
+        <v>42.61450958251953</v>
       </c>
       <c r="G38">
         <v>37900</v>
@@ -1542,13 +1650,16 @@
         <v>0.007022728337305884</v>
       </c>
       <c r="I38">
-        <v>0.03590191284352118</v>
+        <v>0.04442604300086098</v>
       </c>
       <c r="J38">
         <v>0.03590191284352118</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0.03590191284352118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>42036</v>
       </c>
@@ -1574,13 +1685,16 @@
         <v>0.07840234802196022</v>
       </c>
       <c r="I39">
-        <v>0.000784410659216972</v>
+        <v>0.04494050169677528</v>
       </c>
       <c r="J39">
         <v>0.000784410659216972</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0.000784410659216972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>42064</v>
       </c>
@@ -1606,13 +1720,16 @@
         <v>0.02880660897251497</v>
       </c>
       <c r="I40">
-        <v>0.05889467650475866</v>
+        <v>0.0443576756061458</v>
       </c>
       <c r="J40">
         <v>0.05889467650475866</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0.05889467650475866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>42095</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>55.15000152587891</v>
       </c>
       <c r="F41">
-        <v>49.66589736938477</v>
+        <v>49.66590118408203</v>
       </c>
       <c r="G41">
         <v>13300</v>
@@ -1638,13 +1755,16 @@
         <v>0.05047621954055059</v>
       </c>
       <c r="I41">
-        <v>0.0834970505421142</v>
+        <v>0.04405497253070396</v>
       </c>
       <c r="J41">
         <v>0.0834970505421142</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0.0834970505421142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>42125</v>
       </c>
@@ -1670,13 +1790,16 @@
         <v>0.007615560422935541</v>
       </c>
       <c r="I42">
-        <v>0.05546055240872216</v>
+        <v>0.04353086099310136</v>
       </c>
       <c r="J42">
         <v>0.05546055240872216</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0.05546055240872216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>42156</v>
       </c>
@@ -1702,13 +1825,16 @@
         <v>-0.03185172696570182</v>
       </c>
       <c r="I43">
-        <v>0.01222949562598141</v>
+        <v>0.04373168513607511</v>
       </c>
       <c r="J43">
         <v>0.01222949562598141</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0.01222949562598141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>42186</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>56.43000030517578</v>
       </c>
       <c r="F44">
-        <v>51.5699348449707</v>
+        <v>51.56993865966797</v>
       </c>
       <c r="G44">
         <v>15900</v>
@@ -1734,13 +1860,16 @@
         <v>0.04888477891099186</v>
       </c>
       <c r="I44">
-        <v>0.09914297112309844</v>
+        <v>0.04344922889129261</v>
       </c>
       <c r="J44">
         <v>0.09914297112309844</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0.09914297112309844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>42217</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>53.97999954223633</v>
       </c>
       <c r="F45">
-        <v>49.33094787597656</v>
+        <v>49.3309440612793</v>
       </c>
       <c r="G45">
         <v>8000</v>
@@ -1766,13 +1895,16 @@
         <v>-0.04341663564929554</v>
       </c>
       <c r="I45">
-        <v>0.06722019747128871</v>
+        <v>0.04397796616972521</v>
       </c>
       <c r="J45">
         <v>0.06722019747128871</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0.06722019747128871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>42248</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>53.04000091552734</v>
       </c>
       <c r="F46">
-        <v>48.47190856933594</v>
+        <v>48.47190475463867</v>
       </c>
       <c r="G46">
         <v>34200</v>
@@ -1798,13 +1930,16 @@
         <v>-0.01741383169100419</v>
       </c>
       <c r="I46">
-        <v>0.08333337229061821</v>
+        <v>0.04378551520455536</v>
       </c>
       <c r="J46">
         <v>0.08333337229061821</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0.08333337229061821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>42278</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>52.97999954223633</v>
       </c>
       <c r="F47">
-        <v>48.41706848144531</v>
+        <v>48.41706466674805</v>
       </c>
       <c r="G47">
         <v>8700</v>
@@ -1830,13 +1965,16 @@
         <v>-0.001131247591540818</v>
       </c>
       <c r="I47">
-        <v>0.07508118617271298</v>
+        <v>0.04336886115420008</v>
       </c>
       <c r="J47">
         <v>0.07508118617271298</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0.07508118617271298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>42309</v>
       </c>
@@ -1862,13 +2000,16 @@
         <v>0.04058138060505079</v>
       </c>
       <c r="I48">
-        <v>0.1244136740911792</v>
+        <v>0.04303052017245091</v>
       </c>
       <c r="J48">
         <v>0.1244136740911792</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0.1244136740911792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>42339</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>55.84999847412109</v>
       </c>
       <c r="F49">
-        <v>51.04924011230469</v>
+        <v>51.04923248291016</v>
       </c>
       <c r="G49">
         <v>17600</v>
@@ -1894,13 +2035,16 @@
         <v>0.01305999260033164</v>
       </c>
       <c r="I49">
-        <v>0.1885506805528461</v>
+        <v>0.04256423263586444</v>
       </c>
       <c r="J49">
         <v>0.1885506805528461</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0.1885506805528461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>42370</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>54.11999893188477</v>
       </c>
       <c r="F50">
-        <v>49.46793746948242</v>
+        <v>49.46794128417969</v>
       </c>
       <c r="G50">
         <v>15300</v>
@@ -1926,13 +2070,16 @@
         <v>-0.03097582076099692</v>
       </c>
       <c r="I50">
-        <v>0.1437024361985428</v>
+        <v>0.0426740490294507</v>
       </c>
       <c r="J50">
         <v>0.1437024361985428</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0.1437024361985428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>42401</v>
       </c>
@@ -1958,13 +2105,16 @@
         <v>-0.02254245066673677</v>
       </c>
       <c r="I51">
-        <v>0.03664516541867324</v>
+        <v>0.04258425825417343</v>
       </c>
       <c r="J51">
         <v>0.03664516541867324</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0.03664516541867324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>42430</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>56.52000045776367</v>
       </c>
       <c r="F52">
-        <v>51.66164398193359</v>
+        <v>51.66165161132812</v>
       </c>
       <c r="G52">
         <v>159400</v>
@@ -1990,13 +2140,16 @@
         <v>0.06843097972528134</v>
       </c>
       <c r="I52">
-        <v>0.07657143729073668</v>
+        <v>0.04281467707586233</v>
       </c>
       <c r="J52">
         <v>0.07657143729073668</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0.07657143729073668</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>42461</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>57.25</v>
       </c>
       <c r="F53">
-        <v>52.32889175415039</v>
+        <v>52.32889938354492</v>
       </c>
       <c r="G53">
         <v>13600</v>
@@ -2022,13 +2175,16 @@
         <v>0.01291577382031073</v>
       </c>
       <c r="I53">
-        <v>0.03807794045364954</v>
+        <v>0.04238695098118451</v>
       </c>
       <c r="J53">
         <v>0.03807794045364954</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0.03807794045364954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>42491</v>
       </c>
@@ -2054,13 +2210,16 @@
         <v>0.02323147303152284</v>
       </c>
       <c r="I54">
-        <v>0.05416595560123461</v>
+        <v>0.04198068681802958</v>
       </c>
       <c r="J54">
         <v>0.05416595560123461</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0.05416595560123461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>42522</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>55.36000061035156</v>
       </c>
       <c r="F55">
-        <v>51.17135620117188</v>
+        <v>51.17136001586914</v>
       </c>
       <c r="G55">
         <v>40400</v>
@@ -2086,13 +2245,16 @@
         <v>-0.05496758484217257</v>
       </c>
       <c r="I55">
-        <v>0.02899630846493384</v>
+        <v>0.04271289501003216</v>
       </c>
       <c r="J55">
         <v>0.02899630846493384</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0.02899630846493384</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>42552</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>57.2400016784668</v>
       </c>
       <c r="F56">
-        <v>52.90911102294922</v>
+        <v>52.90911483764648</v>
       </c>
       <c r="G56">
         <v>8600</v>
@@ -2118,13 +2280,16 @@
         <v>0.03395955649183469</v>
       </c>
       <c r="I56">
-        <v>0.01435409124420506</v>
+        <v>0.04238676874127449</v>
       </c>
       <c r="J56">
         <v>0.01435409124420506</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0.01435409124420506</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>42583</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>56.36000061035156</v>
       </c>
       <c r="F57">
-        <v>52.0956916809082</v>
+        <v>52.09569931030273</v>
       </c>
       <c r="G57">
         <v>7500</v>
@@ -2150,13 +2315,16 @@
         <v>-0.01537388263994899</v>
       </c>
       <c r="I57">
-        <v>0.04409042401441687</v>
+        <v>0.04219610984560418</v>
       </c>
       <c r="J57">
         <v>0.04409042401441687</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0.04409042401441687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>42614</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>55.52999877929688</v>
       </c>
       <c r="F58">
-        <v>51.32849884033203</v>
+        <v>51.3284912109375</v>
       </c>
       <c r="G58">
         <v>18000</v>
@@ -2182,13 +2350,16 @@
         <v>-0.0147267888940058</v>
       </c>
       <c r="I58">
-        <v>0.04694566027129521</v>
+        <v>0.04199620417460621</v>
       </c>
       <c r="J58">
         <v>0.04694566027129521</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0.04694566027129521</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>42644</v>
       </c>
@@ -2214,13 +2385,16 @@
         <v>-0.04790203324124387</v>
       </c>
       <c r="I59">
-        <v>-0.002076266728992082</v>
+        <v>0.04242585718705426</v>
       </c>
       <c r="J59">
         <v>-0.002076266728992082</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.002076266728992082</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>42675</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>48.88999938964844</v>
       </c>
       <c r="F60">
-        <v>45.19088745117188</v>
+        <v>45.19089126586914</v>
       </c>
       <c r="G60">
         <v>64300</v>
@@ -2246,13 +2420,16 @@
         <v>-0.07527897905509651</v>
       </c>
       <c r="I60">
-        <v>-0.113187040768547</v>
+        <v>0.04362593534764143</v>
       </c>
       <c r="J60">
         <v>-0.113187040768547</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.113187040768547</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>42705</v>
       </c>
@@ -2269,7 +2446,7 @@
         <v>50.9900016784668</v>
       </c>
       <c r="F61">
-        <v>47.16225051879883</v>
+        <v>47.16223907470703</v>
       </c>
       <c r="G61">
         <v>19300</v>
@@ -2278,13 +2455,16 @@
         <v>0.04295361658897856</v>
       </c>
       <c r="I61">
-        <v>-0.08701874536140308</v>
+        <v>0.04344000986857272</v>
       </c>
       <c r="J61">
         <v>-0.08701874536140308</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.08701874536140308</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>42736</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>53.88000106811523</v>
       </c>
       <c r="F62">
-        <v>49.83529281616211</v>
+        <v>49.83529663085938</v>
       </c>
       <c r="G62">
         <v>24400</v>
@@ -2310,13 +2490,16 @@
         <v>0.05667776612113529</v>
       </c>
       <c r="I62">
-        <v>-0.004434550415856275</v>
+        <v>0.04345198586896835</v>
       </c>
       <c r="J62">
         <v>-0.004434550415856275</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.004434550415856275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>42767</v>
       </c>
@@ -2342,13 +2525,16 @@
         <v>-0.00668152567214042</v>
       </c>
       <c r="I63">
-        <v>0.01172020631382131</v>
+        <v>0.04316128966489189</v>
       </c>
       <c r="J63">
         <v>0.01172020631382131</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0.01172020631382131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>42795</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>55.40000152587891</v>
       </c>
       <c r="F64">
-        <v>51.24119186401367</v>
+        <v>51.24118804931641</v>
       </c>
       <c r="G64">
         <v>14000</v>
@@ -2374,13 +2560,16 @@
         <v>0.03512707496329104</v>
       </c>
       <c r="I64">
-        <v>-0.01981597527979007</v>
+        <v>0.04290167262318924</v>
       </c>
       <c r="J64">
         <v>-0.01981597527979007</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.01981597527979007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>42826</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>59.4900016784668</v>
       </c>
       <c r="F65">
-        <v>55.02416229248047</v>
+        <v>55.0241584777832</v>
       </c>
       <c r="G65">
         <v>27500</v>
@@ -2406,13 +2595,16 @@
         <v>0.07382671552233333</v>
       </c>
       <c r="I65">
-        <v>0.03912666687278255</v>
+        <v>0.0432399685553312</v>
       </c>
       <c r="J65">
         <v>0.03912666687278255</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0.03912666687278255</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>42856</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>62.58000183105469</v>
       </c>
       <c r="F66">
-        <v>57.88219833374023</v>
+        <v>57.8821907043457</v>
       </c>
       <c r="G66">
         <v>86200</v>
@@ -2438,13 +2630,16 @@
         <v>0.05194150387301733</v>
       </c>
       <c r="I66">
-        <v>0.06828268820366445</v>
+        <v>0.04315798042276185</v>
       </c>
       <c r="J66">
         <v>0.06828268820366445</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0.06828268820366445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>42887</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>62.66999816894531</v>
       </c>
       <c r="F67">
-        <v>58.70000076293945</v>
+        <v>58.69999313354492</v>
       </c>
       <c r="G67">
         <v>37800</v>
@@ -2470,13 +2665,16 @@
         <v>0.001438100595356095</v>
       </c>
       <c r="I67">
-        <v>0.1320447521315034</v>
+        <v>0.04285016267065887</v>
       </c>
       <c r="J67">
         <v>0.1320447521315034</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0.1320447521315034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>42917</v>
       </c>
@@ -2502,13 +2700,16 @@
         <v>0.0507419881615947</v>
       </c>
       <c r="I68">
-        <v>0.1504192268200668</v>
+        <v>0.04275512675606971</v>
       </c>
       <c r="J68">
         <v>0.1504192268200668</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0.1504192268200668</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>42948</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>67.70999908447266</v>
       </c>
       <c r="F69">
-        <v>63.42072296142578</v>
+        <v>63.42071914672852</v>
       </c>
       <c r="G69">
         <v>7300</v>
@@ -2534,13 +2735,16 @@
         <v>0.02824602359076045</v>
       </c>
       <c r="I69">
-        <v>0.2013839310008179</v>
+        <v>0.04246149181912138</v>
       </c>
       <c r="J69">
         <v>0.2013839310008179</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0.2013839310008179</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>42979</v>
       </c>
@@ -2566,13 +2770,16 @@
         <v>0.002953841092025344</v>
       </c>
       <c r="I70">
-        <v>0.2229426464066142</v>
+        <v>0.04216898594264727</v>
       </c>
       <c r="J70">
         <v>0.2229426464066142</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0.2229426464066142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>43009</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>68.41999816894531</v>
       </c>
       <c r="F71">
-        <v>64.08575439453125</v>
+        <v>64.08574676513672</v>
       </c>
       <c r="G71">
         <v>8500</v>
@@ -2598,13 +2805,16 @@
         <v>0.007509858332116259</v>
       </c>
       <c r="I71">
-        <v>0.2941176385703059</v>
+        <v>0.04186717859021309</v>
       </c>
       <c r="J71">
         <v>0.2941176385703059</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0.2941176385703059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>43040</v>
       </c>
@@ -2621,7 +2831,7 @@
         <v>66.38999938964844</v>
       </c>
       <c r="F72">
-        <v>62.18434524536133</v>
+        <v>62.1843376159668</v>
       </c>
       <c r="G72">
         <v>23300</v>
@@ -2630,13 +2840,16 @@
         <v>-0.02966967017865629</v>
       </c>
       <c r="I72">
-        <v>0.3579464147775242</v>
+        <v>0.04190078481706322</v>
       </c>
       <c r="J72">
         <v>0.3579464147775242</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0.3579464147775242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>43070</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>67.58999633789062</v>
       </c>
       <c r="F73">
-        <v>63.85403823852539</v>
+        <v>63.85404968261719</v>
       </c>
       <c r="G73">
         <v>9200</v>
@@ -2662,13 +2875,16 @@
         <v>0.01807496549592225</v>
       </c>
       <c r="I73">
-        <v>0.3255539147478406</v>
+        <v>0.04160303796699926</v>
       </c>
       <c r="J73">
         <v>0.3255539147478406</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0.3255539147478406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>43101</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>69.72000122070312</v>
       </c>
       <c r="F74">
-        <v>65.86631774902344</v>
+        <v>65.86632537841797</v>
       </c>
       <c r="G74">
         <v>13600</v>
@@ -2694,13 +2910,16 @@
         <v>0.03151361145463527</v>
       </c>
       <c r="I74">
-        <v>0.293986633975061</v>
+        <v>0.04135940845291071</v>
       </c>
       <c r="J74">
         <v>0.293986633975061</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0.293986633975061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>43132</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>68.23999786376953</v>
       </c>
       <c r="F75">
-        <v>64.46811676025391</v>
+        <v>64.46812438964844</v>
       </c>
       <c r="G75">
         <v>10300</v>
@@ -2726,13 +2945,16 @@
         <v>-0.02122781599283896</v>
       </c>
       <c r="I75">
-        <v>0.2750373183875892</v>
+        <v>0.04128275289730066</v>
       </c>
       <c r="J75">
         <v>0.2750373183875892</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0.2750373183875892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>43160</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>68.69000244140625</v>
       </c>
       <c r="F76">
-        <v>64.89325714111328</v>
+        <v>64.89324951171875</v>
       </c>
       <c r="G76">
         <v>25800</v>
@@ -2758,13 +2980,16 @@
         <v>0.006594440089741527</v>
       </c>
       <c r="I76">
-        <v>0.2398917066693438</v>
+        <v>0.04100792859592801</v>
       </c>
       <c r="J76">
         <v>0.2398917066693438</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.2398917066693438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>43191</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>66.91999816894531</v>
       </c>
       <c r="F77">
-        <v>63.22109222412109</v>
+        <v>63.22108459472656</v>
       </c>
       <c r="G77">
         <v>57200</v>
@@ -2790,13 +3015,16 @@
         <v>-0.02576800421532643</v>
       </c>
       <c r="I77">
-        <v>0.1248948778088184</v>
+        <v>0.04098598503584924</v>
       </c>
       <c r="J77">
         <v>0.1248948778088184</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.1248948778088184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>43221</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>66.01999664306641</v>
       </c>
       <c r="F78">
-        <v>62.37082290649414</v>
+        <v>62.37082672119141</v>
       </c>
       <c r="G78">
         <v>11700</v>
@@ -2822,13 +3050,16 @@
         <v>-0.01344891737155718</v>
       </c>
       <c r="I78">
-        <v>0.05496955435218065</v>
+        <v>0.04082745967556214</v>
       </c>
       <c r="J78">
         <v>0.05496955435218065</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0.05496955435218065</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>43252</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>63.88999938964844</v>
       </c>
       <c r="F79">
-        <v>61.21242904663086</v>
+        <v>61.21243286132812</v>
       </c>
       <c r="G79">
         <v>3600</v>
@@ -2854,13 +3085,16 @@
         <v>-0.03226291065923081</v>
       </c>
       <c r="I79">
-        <v>0.01946706967206624</v>
+        <v>0.04088419815453751</v>
       </c>
       <c r="J79">
         <v>0.01946706967206624</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0.01946706967206624</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>43282</v>
       </c>
@@ -2886,13 +3120,16 @@
         <v>0.06229462192761326</v>
       </c>
       <c r="I80">
-        <v>0.03067584387651578</v>
+        <v>0.04100916093833593</v>
       </c>
       <c r="J80">
         <v>0.03067584387651578</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0.03067584387651578</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>43313</v>
       </c>
@@ -2909,7 +3146,7 @@
         <v>67.59999847412109</v>
       </c>
       <c r="F81">
-        <v>64.76696014404297</v>
+        <v>64.76695251464844</v>
       </c>
       <c r="G81">
         <v>2900</v>
@@ -2918,13 +3155,16 @@
         <v>-0.003978256395083646</v>
       </c>
       <c r="I81">
-        <v>-0.001624584431234921</v>
+        <v>0.04079029180272387</v>
       </c>
       <c r="J81">
         <v>-0.001624584431234921</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.001624584431234921</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>43344</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>64.56999969482422</v>
       </c>
       <c r="F82">
-        <v>61.86393356323242</v>
+        <v>61.86392974853516</v>
       </c>
       <c r="G82">
         <v>21500</v>
@@ -2950,13 +3190,16 @@
         <v>-0.04482246816110258</v>
       </c>
       <c r="I82">
-        <v>-0.04918279763175337</v>
+        <v>0.04104020056588451</v>
       </c>
       <c r="J82">
         <v>-0.04918279763175337</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.04918279763175337</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>43374</v>
       </c>
@@ -2982,13 +3225,16 @@
         <v>-0.1025243760751544</v>
       </c>
       <c r="I83">
-        <v>-0.1530253973429367</v>
+        <v>0.04272478901161512</v>
       </c>
       <c r="J83">
         <v>-0.1530253973429367</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1530253973429367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>43405</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>58.41999816894531</v>
       </c>
       <c r="F84">
-        <v>55.9716682434082</v>
+        <v>55.97167205810547</v>
       </c>
       <c r="G84">
         <v>28700</v>
@@ -3014,13 +3260,16 @@
         <v>0.008110395165109807</v>
       </c>
       <c r="I84">
-        <v>-0.1200482195206318</v>
+        <v>0.04246117731021379</v>
       </c>
       <c r="J84">
         <v>-0.1200482195206318</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1200482195206318</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>43435</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>56.81000137329102</v>
       </c>
       <c r="F85">
-        <v>54.63984680175781</v>
+        <v>54.63984298706055</v>
       </c>
       <c r="G85">
         <v>7300</v>
@@ -3046,13 +3295,16 @@
         <v>-0.02755900113174148</v>
       </c>
       <c r="I85">
-        <v>-0.159490983113967</v>
+        <v>0.04240923556696467</v>
       </c>
       <c r="J85">
         <v>-0.159490983113967</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.159490983113967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>43466</v>
       </c>
@@ -3069,7 +3321,7 @@
         <v>59.16999816894531</v>
       </c>
       <c r="F86">
-        <v>56.90969085693359</v>
+        <v>56.90968704223633</v>
       </c>
       <c r="G86">
         <v>51200</v>
@@ -3078,13 +3330,16 @@
         <v>0.04154192463659823</v>
       </c>
       <c r="I86">
-        <v>-0.151319605092391</v>
+        <v>0.04229166016487586</v>
       </c>
       <c r="J86">
         <v>-0.151319605092391</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.151319605092391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>43497</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>62.08000183105469</v>
       </c>
       <c r="F87">
-        <v>59.70852661132812</v>
+        <v>59.70853042602539</v>
       </c>
       <c r="G87">
         <v>6400</v>
@@ -3110,13 +3365,16 @@
         <v>0.04918039128209162</v>
       </c>
       <c r="I87">
-        <v>-0.09026958126540852</v>
+        <v>0.04224744837682679</v>
       </c>
       <c r="J87">
         <v>-0.09026958126540852</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.09026958126540852</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>43525</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>63.04999923706055</v>
       </c>
       <c r="F88">
-        <v>60.64147567749023</v>
+        <v>60.64147186279297</v>
       </c>
       <c r="G88">
         <v>2500</v>
@@ -3142,13 +3400,16 @@
         <v>0.01562495775444117</v>
       </c>
       <c r="I88">
-        <v>-0.08210806527713732</v>
+        <v>0.04200115191444728</v>
       </c>
       <c r="J88">
         <v>-0.08210806527713732</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.08210806527713732</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>43556</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>64.29000091552734</v>
       </c>
       <c r="F89">
-        <v>61.83409881591797</v>
+        <v>61.83410263061523</v>
       </c>
       <c r="G89">
         <v>8300</v>
@@ -3174,13 +3435,16 @@
         <v>0.01966695786632022</v>
       </c>
       <c r="I89">
-        <v>-0.03930061753406378</v>
+        <v>0.04176644030321192</v>
       </c>
       <c r="J89">
         <v>-0.03930061753406378</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.03930061753406378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>43586</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>61.16999816894531</v>
       </c>
       <c r="F90">
-        <v>58.83329010009766</v>
+        <v>58.83328628540039</v>
       </c>
       <c r="G90">
         <v>19100</v>
@@ -3206,13 +3470,16 @@
         <v>-0.0485301400241307</v>
       </c>
       <c r="I90">
-        <v>-0.07346256771781356</v>
+        <v>0.04201036190204152</v>
       </c>
       <c r="J90">
         <v>-0.07346256771781356</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>-0.07346256771781356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>43617</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>62.38000106811523</v>
       </c>
       <c r="F91">
-        <v>61.47555541992188</v>
+        <v>61.47555923461914</v>
       </c>
       <c r="G91">
         <v>700</v>
@@ -3238,13 +3505,16 @@
         <v>0.01978098635589332</v>
       </c>
       <c r="I91">
-        <v>-0.02363434553073196</v>
+        <v>0.04178261679215959</v>
       </c>
       <c r="J91">
         <v>-0.02363434553073196</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>-0.02363434553073196</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>43647</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>60.09000015258789</v>
       </c>
       <c r="F92">
-        <v>59.2187614440918</v>
+        <v>59.21875762939453</v>
       </c>
       <c r="G92">
         <v>4700</v>
@@ -3270,13 +3540,16 @@
         <v>-0.03671049817756178</v>
       </c>
       <c r="I92">
-        <v>-0.1146309456188426</v>
+        <v>0.04184525655815156</v>
       </c>
       <c r="J92">
         <v>-0.1146309456188426</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>-0.1146309456188426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>43678</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F93">
-        <v>59.91846466064453</v>
+        <v>59.9184684753418</v>
       </c>
       <c r="G93">
         <v>10200</v>
@@ -3302,13 +3575,16 @@
         <v>0.01181559465251691</v>
       </c>
       <c r="I93">
-        <v>-0.1005917069608182</v>
+        <v>0.0416125407486674</v>
       </c>
       <c r="J93">
         <v>-0.1005917069608182</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>-0.1005917069608182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>43709</v>
       </c>
@@ -3334,13 +3610,16 @@
         <v>0.0004934637232010264</v>
       </c>
       <c r="I94">
-        <v>-0.05792160262421875</v>
+        <v>0.0413953332007754</v>
       </c>
       <c r="J94">
         <v>-0.05792160262421875</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>-0.05792160262421875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>43739</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>62.72999954223633</v>
       </c>
       <c r="F95">
-        <v>61.82048034667969</v>
+        <v>61.82047653198242</v>
       </c>
       <c r="G95">
         <v>6000</v>
@@ -3366,13 +3645,16 @@
         <v>0.03123454962994354</v>
       </c>
       <c r="I95">
-        <v>0.08248487862581366</v>
+        <v>0.04122872639906538</v>
       </c>
       <c r="J95">
         <v>0.08248487862581366</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.08248487862581366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>43770</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>65.26000213623047</v>
       </c>
       <c r="F96">
-        <v>64.31381225585938</v>
+        <v>64.31380462646484</v>
       </c>
       <c r="G96">
         <v>3000</v>
@@ -3398,13 +3680,16 @@
         <v>0.04033162143243252</v>
       </c>
       <c r="I96">
-        <v>0.1170832622675626</v>
+        <v>0.04112404412796106</v>
       </c>
       <c r="J96">
         <v>0.1170832622675626</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.1170832622675626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>43800</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>68.84999847412109</v>
       </c>
       <c r="F97">
-        <v>67.95657348632812</v>
+        <v>67.95658111572266</v>
       </c>
       <c r="G97">
         <v>11100</v>
@@ -3430,13 +3715,16 @@
         <v>0.05501066840905855</v>
       </c>
       <c r="I97">
-        <v>0.2119344624147577</v>
+        <v>0.04115857372442283</v>
       </c>
       <c r="J97">
         <v>0.2119344624147577</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.2119344624147577</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>43831</v>
       </c>
@@ -3462,13 +3750,16 @@
         <v>0.00566447927802094</v>
       </c>
       <c r="I98">
-        <v>0.1701875951740242</v>
+        <v>0.04094498703834184</v>
       </c>
       <c r="J98">
         <v>0.1701875951740242</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.1701875951740242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>43862</v>
       </c>
@@ -3494,13 +3785,16 @@
         <v>-0.05372618913163851</v>
       </c>
       <c r="I99">
-        <v>0.05541228593023195</v>
+        <v>0.04125693020161275</v>
       </c>
       <c r="J99">
         <v>0.05541228593023195</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.05541228593023195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>43891</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>60.06000137329102</v>
       </c>
       <c r="F100">
-        <v>59.28064346313477</v>
+        <v>59.2806396484375</v>
       </c>
       <c r="G100">
         <v>2200</v>
@@ -3526,13 +3820,16 @@
         <v>-0.08333326540780872</v>
       </c>
       <c r="I100">
-        <v>-0.04742264710468103</v>
+        <v>0.04211876100192706</v>
       </c>
       <c r="J100">
         <v>-0.04742264710468103</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>-0.04742264710468103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>43922</v>
       </c>
@@ -3549,7 +3846,7 @@
         <v>65.66999816894531</v>
       </c>
       <c r="F101">
-        <v>64.81784057617188</v>
+        <v>64.81784820556641</v>
       </c>
       <c r="G101">
         <v>5700</v>
@@ -3558,13 +3855,16 @@
         <v>0.09340653791841391</v>
       </c>
       <c r="I101">
-        <v>0.02146519262351831</v>
+        <v>0.04274712515805674</v>
       </c>
       <c r="J101">
         <v>0.02146519262351831</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.02146519262351831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>43952</v>
       </c>
@@ -3590,13 +3890,16 @@
         <v>0.09760931690021879</v>
       </c>
       <c r="I102">
-        <v>0.1783554681819191</v>
+        <v>0.0434203358243174</v>
       </c>
       <c r="J102">
         <v>0.1783554681819191</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.1783554681819191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>43983</v>
       </c>
@@ -3622,13 +3925,16 @@
         <v>0.02219753653546319</v>
       </c>
       <c r="I103">
-        <v>0.1811477884510073</v>
+        <v>0.04321695500754568</v>
       </c>
       <c r="J103">
         <v>0.1811477884510073</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.1811477884510073</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>44013</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.08238327456138483</v>
       </c>
       <c r="I104">
-        <v>0.3271758994423204</v>
+        <v>0.04357707221968089</v>
       </c>
       <c r="J104">
         <v>0.3271758994423204</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.3271758994423204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>44044</v>
       </c>
@@ -3686,13 +3995,16 @@
         <v>0.05291537580818972</v>
       </c>
       <c r="I105">
-        <v>0.3810855637234833</v>
+        <v>0.04355133143222953</v>
       </c>
       <c r="J105">
         <v>0.3810855637234833</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.3810855637234833</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>44075</v>
       </c>
@@ -3718,13 +4030,16 @@
         <v>0.008217249391156756</v>
       </c>
       <c r="I106">
-        <v>0.3917475113224325</v>
+        <v>0.04334120216923242</v>
       </c>
       <c r="J106">
         <v>0.3917475113224325</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.3917475113224325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>44105</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>82.52999877929688</v>
       </c>
       <c r="F107">
-        <v>81.86833953857422</v>
+        <v>81.86833190917969</v>
       </c>
       <c r="G107">
         <v>12100</v>
@@ -3750,13 +4065,16 @@
         <v>-0.02515951796214966</v>
       </c>
       <c r="I107">
-        <v>0.3156384406432067</v>
+        <v>0.04328620653765526</v>
       </c>
       <c r="J107">
         <v>0.3156384406432067</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.3156384406432067</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>44136</v>
       </c>
@@ -3782,13 +4100,16 @@
         <v>0.1038410253433089</v>
       </c>
       <c r="I108">
-        <v>0.3959545738896781</v>
+        <v>0.04399638333526365</v>
       </c>
       <c r="J108">
         <v>0.3959545738896781</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.3959545738896781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>44166</v>
       </c>
@@ -3814,13 +4135,16 @@
         <v>0.07145995878451927</v>
       </c>
       <c r="I109">
-        <v>0.4177197207497485</v>
+        <v>0.04415504335133285</v>
       </c>
       <c r="J109">
         <v>0.4177197207497485</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.4177197207497485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>44197</v>
       </c>
@@ -3846,13 +4170,16 @@
         <v>-0.03995493803393446</v>
       </c>
       <c r="I110">
-        <v>0.3534084629645444</v>
+        <v>0.04424562728324995</v>
       </c>
       <c r="J110">
         <v>0.3534084629645444</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.3534084629645444</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>44228</v>
       </c>
@@ -3878,13 +4205,16 @@
         <v>0.006509450606244194</v>
       </c>
       <c r="I111">
-        <v>0.4395605086589325</v>
+        <v>0.04404439950519769</v>
       </c>
       <c r="J111">
         <v>0.4395605086589325</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.4395605086589325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>44256</v>
       </c>
@@ -3910,13 +4240,16 @@
         <v>0.02703565585250689</v>
       </c>
       <c r="I112">
-        <v>0.6128871217385721</v>
+        <v>0.04386314369852935</v>
       </c>
       <c r="J112">
         <v>0.6128871217385721</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.6128871217385721</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>44287</v>
       </c>
@@ -3942,13 +4275,16 @@
         <v>0.07009394779610378</v>
       </c>
       <c r="I113">
-        <v>0.5784986531510086</v>
+        <v>0.04400008951597798</v>
       </c>
       <c r="J113">
         <v>0.5784986531510086</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.5784986531510086</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>44317</v>
       </c>
@@ -3974,13 +4310,16 @@
         <v>0.04234998296891934</v>
       </c>
       <c r="I114">
-        <v>0.4990288610842673</v>
+        <v>0.04388699198943582</v>
       </c>
       <c r="J114">
         <v>0.4990288610842673</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.4990288610842673</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>44348</v>
       </c>
@@ -4006,13 +4345,16 @@
         <v>0.0006478453757257085</v>
       </c>
       <c r="I115">
-        <v>0.4674267412969453</v>
+        <v>0.04370767479023526</v>
       </c>
       <c r="J115">
         <v>0.4674267412969453</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.4674267412969453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>44378</v>
       </c>
@@ -4038,13 +4380,16 @@
         <v>0.03718087810715942</v>
       </c>
       <c r="I116">
-        <v>0.406144192973648</v>
+        <v>0.04357029783367193</v>
       </c>
       <c r="J116">
         <v>0.406144192973648</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.406144192973648</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>44409</v>
       </c>
@@ -4070,13 +4415,16 @@
         <v>0.02541464677753669</v>
       </c>
       <c r="I117">
-        <v>0.3694176038122803</v>
+        <v>0.04339249514417814</v>
       </c>
       <c r="J117">
         <v>0.3694176038122803</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.3694176038122803</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>44440</v>
       </c>
@@ -4102,13 +4450,16 @@
         <v>-0.06687533659338074</v>
       </c>
       <c r="I118">
-        <v>0.2674226129260286</v>
+        <v>0.04384823195333051</v>
       </c>
       <c r="J118">
         <v>0.2674226129260286</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.2674226129260286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>44470</v>
       </c>
@@ -4134,13 +4485,16 @@
         <v>0.06253493843085889</v>
       </c>
       <c r="I119">
-        <v>0.3814370995099363</v>
+        <v>0.04389717183669144</v>
       </c>
       <c r="J119">
         <v>0.3814370995099363</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.3814370995099363</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>44501</v>
       </c>
@@ -4166,42 +4520,83 @@
         <v>-0.06341551812528223</v>
       </c>
       <c r="I120">
-        <v>0.1721185572756077</v>
+        <v>0.04427962184936689</v>
       </c>
       <c r="J120">
         <v>0.1721185572756077</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1721185572756077</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>44531</v>
       </c>
       <c r="B121">
-        <v>111.1080017089844</v>
+        <v>111.3300018310547</v>
       </c>
       <c r="C121">
-        <v>111.3099975585938</v>
+        <v>111.6600036621094</v>
       </c>
       <c r="D121">
-        <v>110.9400024414062</v>
+        <v>111.1699981689453</v>
       </c>
       <c r="E121">
-        <v>111.0100021362305</v>
+        <v>111.2200012207031</v>
       </c>
       <c r="F121">
-        <v>111.0100021362305</v>
+        <v>111.2200012207031</v>
       </c>
       <c r="G121">
-        <v>12863</v>
+        <v>5300</v>
       </c>
       <c r="H121">
-        <v>0.03961419184576487</v>
+        <v>0.04158084371758863</v>
       </c>
       <c r="I121">
-        <v>0.1372810310633052</v>
+        <v>0.04416996045989754</v>
       </c>
       <c r="J121">
-        <v>0.1372810310633052</v>
+        <v>0.139432440582407</v>
+      </c>
+      <c r="K121">
+        <v>0.139432440582407</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B122">
+        <v>111.120002746582</v>
+      </c>
+      <c r="C122">
+        <v>111.120002746582</v>
+      </c>
+      <c r="D122">
+        <v>110.4595031738281</v>
+      </c>
+      <c r="E122">
+        <v>110.6600036621094</v>
+      </c>
+      <c r="F122">
+        <v>110.6600036621094</v>
+      </c>
+      <c r="G122">
+        <v>23462</v>
+      </c>
+      <c r="H122">
+        <v>-0.00503504362927043</v>
+      </c>
+      <c r="I122">
+        <v>0.04401523818011051</v>
+      </c>
+      <c r="J122">
+        <v>0.1808772248771184</v>
+      </c>
+      <c r="K122">
+        <v>0.1808772248771184</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EDEN.xlsx
+++ b/etf_dfs/EDEN.xlsx
@@ -508,7 +508,7 @@
         <v>26.35000038146973</v>
       </c>
       <c r="F2" t="n">
-        <v>23.26592636108398</v>
+        <v>23.26592445373535</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>29.44000053405762</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99425888061523</v>
+        <v>25.99426078796387</v>
       </c>
       <c r="G4" t="n">
         <v>9100</v>
@@ -595,7 +595,7 @@
         <v>29.81999969482422</v>
       </c>
       <c r="F5" t="n">
-        <v>26.32978630065918</v>
+        <v>26.32978820800781</v>
       </c>
       <c r="G5" t="n">
         <v>2600</v>
@@ -626,7 +626,7 @@
         <v>27.10000038146973</v>
       </c>
       <c r="F6" t="n">
-        <v>23.92813873291016</v>
+        <v>23.92814064025879</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>27.26000022888184</v>
       </c>
       <c r="F7" t="n">
-        <v>24.3504467010498</v>
+        <v>24.35044479370117</v>
       </c>
       <c r="G7" t="n">
         <v>3700</v>
@@ -750,7 +750,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F10" t="n">
-        <v>27.03918075561523</v>
+        <v>27.03918266296387</v>
       </c>
       <c r="G10" t="n">
         <v>18900</v>
@@ -781,7 +781,7 @@
         <v>30.27000045776367</v>
       </c>
       <c r="F11" t="n">
-        <v>27.03918075561523</v>
+        <v>27.03918266296387</v>
       </c>
       <c r="G11" t="n">
         <v>2000</v>
@@ -812,7 +812,7 @@
         <v>30.71999931335449</v>
       </c>
       <c r="F12" t="n">
-        <v>27.44115257263184</v>
+        <v>27.44114875793457</v>
       </c>
       <c r="G12" t="n">
         <v>5100</v>
@@ -843,7 +843,7 @@
         <v>31.97999954223633</v>
       </c>
       <c r="F13" t="n">
-        <v>28.56666946411133</v>
+        <v>28.56666374206543</v>
       </c>
       <c r="G13" t="n">
         <v>3800</v>
@@ -874,7 +874,7 @@
         <v>34.81000137329102</v>
       </c>
       <c r="F14" t="n">
-        <v>31.09460830688477</v>
+        <v>31.09461212158203</v>
       </c>
       <c r="G14" t="n">
         <v>600</v>
@@ -909,7 +909,7 @@
         <v>34.72999954223633</v>
       </c>
       <c r="F15" t="n">
-        <v>31.02315521240234</v>
+        <v>31.02314567565918</v>
       </c>
       <c r="G15" t="n">
         <v>56800</v>
@@ -944,7 +944,7 @@
         <v>34.56000137329102</v>
       </c>
       <c r="F16" t="n">
-        <v>30.87130355834961</v>
+        <v>30.87129783630371</v>
       </c>
       <c r="G16" t="n">
         <v>7400</v>
@@ -979,7 +979,7 @@
         <v>35.83000183105469</v>
       </c>
       <c r="F17" t="n">
-        <v>32.00574493408203</v>
+        <v>32.00574111938477</v>
       </c>
       <c r="G17" t="n">
         <v>8600</v>
@@ -1014,7 +1014,7 @@
         <v>35.90999984741211</v>
       </c>
       <c r="F18" t="n">
-        <v>32.07720565795898</v>
+        <v>32.07720184326172</v>
       </c>
       <c r="G18" t="n">
         <v>25300</v>
@@ -1049,7 +1049,7 @@
         <v>34.29999923706055</v>
       </c>
       <c r="F19" t="n">
-        <v>30.63904190063477</v>
+        <v>30.6390495300293</v>
       </c>
       <c r="G19" t="n">
         <v>8700</v>
@@ -1119,7 +1119,7 @@
         <v>37.68999862670898</v>
       </c>
       <c r="F21" t="n">
-        <v>33.66722106933594</v>
+        <v>33.66721725463867</v>
       </c>
       <c r="G21" t="n">
         <v>800</v>
@@ -1154,7 +1154,7 @@
         <v>40.45000076293945</v>
       </c>
       <c r="F22" t="n">
-        <v>36.13262939453125</v>
+        <v>36.13263320922852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>45.68000030517578</v>
       </c>
       <c r="F26" t="n">
-        <v>40.81984710693359</v>
+        <v>40.81985473632812</v>
       </c>
       <c r="G26" t="n">
         <v>2900</v>
@@ -1329,7 +1329,7 @@
         <v>50.9900016784668</v>
       </c>
       <c r="F27" t="n">
-        <v>45.56489181518555</v>
+        <v>45.56488418579102</v>
       </c>
       <c r="G27" t="n">
         <v>5200</v>
@@ -1364,7 +1364,7 @@
         <v>49.58000183105469</v>
       </c>
       <c r="F28" t="n">
-        <v>44.30490875244141</v>
+        <v>44.30489730834961</v>
       </c>
       <c r="G28" t="n">
         <v>6100</v>
@@ -1399,7 +1399,7 @@
         <v>50.90000152587891</v>
       </c>
       <c r="F29" t="n">
-        <v>45.48445892333984</v>
+        <v>45.48446273803711</v>
       </c>
       <c r="G29" t="n">
         <v>22500</v>
@@ -1539,7 +1539,7 @@
         <v>50.58000183105469</v>
       </c>
       <c r="F33" t="n">
-        <v>45.54449081420898</v>
+        <v>45.54449462890625</v>
       </c>
       <c r="G33" t="n">
         <v>51300</v>
@@ -1574,7 +1574,7 @@
         <v>48.95999908447266</v>
       </c>
       <c r="F34" t="n">
-        <v>44.08577346801758</v>
+        <v>44.08576583862305</v>
       </c>
       <c r="G34" t="n">
         <v>7400</v>
@@ -1609,7 +1609,7 @@
         <v>49.27999877929688</v>
       </c>
       <c r="F35" t="n">
-        <v>44.37391662597656</v>
+        <v>44.37390899658203</v>
       </c>
       <c r="G35" t="n">
         <v>256500</v>
@@ -1679,7 +1679,7 @@
         <v>46.9900016784668</v>
       </c>
       <c r="F37" t="n">
-        <v>42.31732940673828</v>
+        <v>42.31732177734375</v>
       </c>
       <c r="G37" t="n">
         <v>6000</v>
@@ -1714,7 +1714,7 @@
         <v>47.31999969482422</v>
       </c>
       <c r="F38" t="n">
-        <v>42.61450958251953</v>
+        <v>42.6145133972168</v>
       </c>
       <c r="G38" t="n">
         <v>37900</v>
@@ -1749,7 +1749,7 @@
         <v>51.02999877929688</v>
       </c>
       <c r="F39" t="n">
-        <v>45.95558547973633</v>
+        <v>45.95558929443359</v>
       </c>
       <c r="G39" t="n">
         <v>79900</v>
@@ -1854,7 +1854,7 @@
         <v>55.56999969482422</v>
       </c>
       <c r="F42" t="n">
-        <v>50.04413223266602</v>
+        <v>50.04412460327148</v>
       </c>
       <c r="G42" t="n">
         <v>5300</v>
@@ -1889,7 +1889,7 @@
         <v>53.79999923706055</v>
       </c>
       <c r="F43" t="n">
-        <v>49.16643905639648</v>
+        <v>49.16644668579102</v>
       </c>
       <c r="G43" t="n">
         <v>50500</v>
@@ -1924,7 +1924,7 @@
         <v>56.43000030517578</v>
       </c>
       <c r="F44" t="n">
-        <v>51.56994247436523</v>
+        <v>51.5699348449707</v>
       </c>
       <c r="G44" t="n">
         <v>15900</v>
@@ -1959,7 +1959,7 @@
         <v>53.97999954223633</v>
       </c>
       <c r="F45" t="n">
-        <v>49.33093643188477</v>
+        <v>49.3309440612793</v>
       </c>
       <c r="G45" t="n">
         <v>8000</v>
@@ -1994,7 +1994,7 @@
         <v>53.04000091552734</v>
       </c>
       <c r="F46" t="n">
-        <v>48.47190475463867</v>
+        <v>48.47190093994141</v>
       </c>
       <c r="G46" t="n">
         <v>34200</v>
@@ -2029,7 +2029,7 @@
         <v>52.97999954223633</v>
       </c>
       <c r="F47" t="n">
-        <v>48.41707611083984</v>
+        <v>48.41706848144531</v>
       </c>
       <c r="G47" t="n">
         <v>8700</v>
@@ -2099,7 +2099,7 @@
         <v>55.84999847412109</v>
       </c>
       <c r="F49" t="n">
-        <v>51.04923248291016</v>
+        <v>51.04922866821289</v>
       </c>
       <c r="G49" t="n">
         <v>17600</v>
@@ -2134,7 +2134,7 @@
         <v>54.11999893188477</v>
       </c>
       <c r="F50" t="n">
-        <v>49.46794128417969</v>
+        <v>49.46794509887695</v>
       </c>
       <c r="G50" t="n">
         <v>15300</v>
@@ -2169,7 +2169,7 @@
         <v>52.90000152587891</v>
       </c>
       <c r="F51" t="n">
-        <v>48.35281753540039</v>
+        <v>48.35281372070312</v>
       </c>
       <c r="G51" t="n">
         <v>11200</v>
@@ -2204,7 +2204,7 @@
         <v>56.52000045776367</v>
       </c>
       <c r="F52" t="n">
-        <v>51.66164779663086</v>
+        <v>51.66164016723633</v>
       </c>
       <c r="G52" t="n">
         <v>159400</v>
@@ -2239,7 +2239,7 @@
         <v>57.25</v>
       </c>
       <c r="F53" t="n">
-        <v>52.32889938354492</v>
+        <v>52.32889556884766</v>
       </c>
       <c r="G53" t="n">
         <v>13600</v>
@@ -2274,7 +2274,7 @@
         <v>58.58000183105469</v>
       </c>
       <c r="F54" t="n">
-        <v>53.54457092285156</v>
+        <v>53.54457473754883</v>
       </c>
       <c r="G54" t="n">
         <v>61100</v>
@@ -2309,7 +2309,7 @@
         <v>55.36000061035156</v>
       </c>
       <c r="F55" t="n">
-        <v>51.17135620117188</v>
+        <v>51.17136001586914</v>
       </c>
       <c r="G55" t="n">
         <v>40400</v>
@@ -2344,7 +2344,7 @@
         <v>57.2400016784668</v>
       </c>
       <c r="F56" t="n">
-        <v>52.90911865234375</v>
+        <v>52.90911483764648</v>
       </c>
       <c r="G56" t="n">
         <v>8600</v>
@@ -2379,7 +2379,7 @@
         <v>56.36000061035156</v>
       </c>
       <c r="F57" t="n">
-        <v>52.09569931030273</v>
+        <v>52.09569549560547</v>
       </c>
       <c r="G57" t="n">
         <v>7500</v>
@@ -2414,7 +2414,7 @@
         <v>55.52999877929688</v>
       </c>
       <c r="F58" t="n">
-        <v>51.32848739624023</v>
+        <v>51.32849502563477</v>
       </c>
       <c r="G58" t="n">
         <v>18000</v>
@@ -2484,7 +2484,7 @@
         <v>48.88999938964844</v>
       </c>
       <c r="F60" t="n">
-        <v>45.19089126586914</v>
+        <v>45.19088745117188</v>
       </c>
       <c r="G60" t="n">
         <v>64300</v>
@@ -2519,7 +2519,7 @@
         <v>50.9900016784668</v>
       </c>
       <c r="F61" t="n">
-        <v>47.16225051879883</v>
+        <v>47.16224670410156</v>
       </c>
       <c r="G61" t="n">
         <v>19300</v>
@@ -2589,7 +2589,7 @@
         <v>53.52000045776367</v>
       </c>
       <c r="F63" t="n">
-        <v>49.50232315063477</v>
+        <v>49.50231552124023</v>
       </c>
       <c r="G63" t="n">
         <v>9000</v>
@@ -2659,7 +2659,7 @@
         <v>59.4900016784668</v>
       </c>
       <c r="F65" t="n">
-        <v>55.0241584777832</v>
+        <v>55.024169921875</v>
       </c>
       <c r="G65" t="n">
         <v>27500</v>
@@ -2694,7 +2694,7 @@
         <v>62.58000183105469</v>
       </c>
       <c r="F66" t="n">
-        <v>57.88219451904297</v>
+        <v>57.88219833374023</v>
       </c>
       <c r="G66" t="n">
         <v>86200</v>
@@ -2729,7 +2729,7 @@
         <v>62.66999816894531</v>
       </c>
       <c r="F67" t="n">
-        <v>58.69999694824219</v>
+        <v>58.69999313354492</v>
       </c>
       <c r="G67" t="n">
         <v>37800</v>
@@ -2764,7 +2764,7 @@
         <v>65.84999847412109</v>
       </c>
       <c r="F68" t="n">
-        <v>61.67853927612305</v>
+        <v>61.67854690551758</v>
       </c>
       <c r="G68" t="n">
         <v>5800</v>
@@ -2799,7 +2799,7 @@
         <v>67.70999908447266</v>
       </c>
       <c r="F69" t="n">
-        <v>63.42071914672852</v>
+        <v>63.42073440551758</v>
       </c>
       <c r="G69" t="n">
         <v>7300</v>
@@ -2834,7 +2834,7 @@
         <v>67.91000366210938</v>
       </c>
       <c r="F70" t="n">
-        <v>63.60804748535156</v>
+        <v>63.6080436706543</v>
       </c>
       <c r="G70" t="n">
         <v>113100</v>
@@ -2869,7 +2869,7 @@
         <v>68.41999816894531</v>
       </c>
       <c r="F71" t="n">
-        <v>64.08574676513672</v>
+        <v>64.08573913574219</v>
       </c>
       <c r="G71" t="n">
         <v>8500</v>
@@ -2904,7 +2904,7 @@
         <v>66.38999938964844</v>
       </c>
       <c r="F72" t="n">
-        <v>62.18435287475586</v>
+        <v>62.18434906005859</v>
       </c>
       <c r="G72" t="n">
         <v>23300</v>
@@ -2939,7 +2939,7 @@
         <v>67.58999633789062</v>
       </c>
       <c r="F73" t="n">
-        <v>63.85405731201172</v>
+        <v>63.85404968261719</v>
       </c>
       <c r="G73" t="n">
         <v>9200</v>
@@ -3009,7 +3009,7 @@
         <v>68.23999786376953</v>
       </c>
       <c r="F75" t="n">
-        <v>64.46812438964844</v>
+        <v>64.46813201904297</v>
       </c>
       <c r="G75" t="n">
         <v>10300</v>
@@ -3114,7 +3114,7 @@
         <v>66.01999664306641</v>
       </c>
       <c r="F78" t="n">
-        <v>62.37082672119141</v>
+        <v>62.37083435058594</v>
       </c>
       <c r="G78" t="n">
         <v>11700</v>
@@ -3149,7 +3149,7 @@
         <v>63.88999938964844</v>
       </c>
       <c r="F79" t="n">
-        <v>61.21242523193359</v>
+        <v>61.21242904663086</v>
       </c>
       <c r="G79" t="n">
         <v>3600</v>
@@ -3184,7 +3184,7 @@
         <v>67.87000274658203</v>
       </c>
       <c r="F80" t="n">
-        <v>65.02562713623047</v>
+        <v>65.025634765625</v>
       </c>
       <c r="G80" t="n">
         <v>9100</v>
@@ -3254,7 +3254,7 @@
         <v>64.56999969482422</v>
       </c>
       <c r="F82" t="n">
-        <v>61.86394119262695</v>
+        <v>61.86392593383789</v>
       </c>
       <c r="G82" t="n">
         <v>21500</v>
@@ -3289,7 +3289,7 @@
         <v>57.95000076293945</v>
       </c>
       <c r="F83" t="n">
-        <v>55.52137756347656</v>
+        <v>55.5213737487793</v>
       </c>
       <c r="G83" t="n">
         <v>10700</v>
@@ -3324,7 +3324,7 @@
         <v>58.41999816894531</v>
       </c>
       <c r="F84" t="n">
-        <v>55.97167205810547</v>
+        <v>55.97167587280273</v>
       </c>
       <c r="G84" t="n">
         <v>28700</v>
@@ -3394,7 +3394,7 @@
         <v>59.16999816894531</v>
       </c>
       <c r="F86" t="n">
-        <v>56.90968322753906</v>
+        <v>56.90968704223633</v>
       </c>
       <c r="G86" t="n">
         <v>51200</v>
@@ -3464,7 +3464,7 @@
         <v>63.04999923706055</v>
       </c>
       <c r="F88" t="n">
-        <v>60.64147186279297</v>
+        <v>60.6414680480957</v>
       </c>
       <c r="G88" t="n">
         <v>2500</v>
@@ -3499,7 +3499,7 @@
         <v>64.29000091552734</v>
       </c>
       <c r="F89" t="n">
-        <v>61.83411026000977</v>
+        <v>61.83410263061523</v>
       </c>
       <c r="G89" t="n">
         <v>8300</v>
@@ -3569,7 +3569,7 @@
         <v>62.38000106811523</v>
       </c>
       <c r="F91" t="n">
-        <v>61.47555923461914</v>
+        <v>61.47556304931641</v>
       </c>
       <c r="G91" t="n">
         <v>700</v>
@@ -3674,7 +3674,7 @@
         <v>60.83000183105469</v>
       </c>
       <c r="F94" t="n">
-        <v>59.94803237915039</v>
+        <v>59.94802856445312</v>
       </c>
       <c r="G94" t="n">
         <v>1000</v>
@@ -3709,7 +3709,7 @@
         <v>62.72999954223633</v>
       </c>
       <c r="F95" t="n">
-        <v>61.82048416137695</v>
+        <v>61.82047653198242</v>
       </c>
       <c r="G95" t="n">
         <v>6000</v>
@@ -3954,7 +3954,7 @@
         <v>72.08000183105469</v>
       </c>
       <c r="F102" t="n">
-        <v>71.1446533203125</v>
+        <v>71.14466094970703</v>
       </c>
       <c r="G102" t="n">
         <v>7500</v>
@@ -4024,7 +4024,7 @@
         <v>79.75</v>
       </c>
       <c r="F104" t="n">
-        <v>79.11062622070312</v>
+        <v>79.11063385009766</v>
       </c>
       <c r="G104" t="n">
         <v>29000</v>
@@ -4059,7 +4059,7 @@
         <v>83.97000122070312</v>
       </c>
       <c r="F105" t="n">
-        <v>83.29680633544922</v>
+        <v>83.29679870605469</v>
       </c>
       <c r="G105" t="n">
         <v>16400</v>
@@ -4129,7 +4129,7 @@
         <v>82.52999877929688</v>
       </c>
       <c r="F107" t="n">
-        <v>81.86833953857422</v>
+        <v>81.86833190917969</v>
       </c>
       <c r="G107" t="n">
         <v>12100</v>
@@ -4164,7 +4164,7 @@
         <v>91.09999847412109</v>
       </c>
       <c r="F108" t="n">
-        <v>90.36963653564453</v>
+        <v>90.36962890625</v>
       </c>
       <c r="G108" t="n">
         <v>55000</v>
@@ -4339,7 +4339,7 @@
         <v>103.6600036621094</v>
       </c>
       <c r="F113" t="n">
-        <v>102.8810729980469</v>
+        <v>102.8810653686523</v>
       </c>
       <c r="G113" t="n">
         <v>11600</v>
@@ -4374,7 +4374,7 @@
         <v>108.0500030517578</v>
       </c>
       <c r="F114" t="n">
-        <v>107.2380752563477</v>
+        <v>107.2380828857422</v>
       </c>
       <c r="G114" t="n">
         <v>10700</v>
@@ -4657,7 +4657,7 @@
         <v>109.5749969482422</v>
       </c>
       <c r="G122" t="n">
-        <v>1242</v>
+        <v>1294</v>
       </c>
       <c r="H122" t="n">
         <v>-0.01479054355696885</v>

--- a/etf_dfs/EDEN.xlsx
+++ b/etf_dfs/EDEN.xlsx
@@ -1,40 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Adj Close</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +87,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,4253 +406,4200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Open</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Close</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Adj Close</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Volume</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Return</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Volatility</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>EDEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>40909</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>26.35000038146973</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>26.35000038146973</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>26.35000038146973</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>26.35000038146973</v>
       </c>
-      <c r="F2" t="n">
-        <v>23.26592445373535</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="F2">
+        <v>23.26592254638672</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
         <v>40940</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>29.86000061035156</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>29.8799991607666</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>29.54999923706055</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>29.64999961853027</v>
       </c>
-      <c r="F3" t="n">
-        <v>26.1796817779541</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="F3">
+        <v>26.17967796325684</v>
+      </c>
+      <c r="G3">
         <v>5300</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>0.1252371608837328</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
         <v>40969</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>29.32999992370605</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>29.44000053405762</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>29.32999992370605</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>29.44000053405762</v>
       </c>
-      <c r="F4" t="n">
-        <v>25.99426078796387</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>25.99425888061523</v>
+      </c>
+      <c r="G4">
         <v>9100</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>-0.007082599904703279</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>0.093564200138485</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
         <v>41000</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>29.75</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>29.81999969482422</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>29.75</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>29.81999969482422</v>
       </c>
-      <c r="F5" t="n">
-        <v>26.32978820800781</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="F5">
+        <v>26.32978630065918</v>
+      </c>
+      <c r="G5">
         <v>2600</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>0.0129075799549323</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>0.07132795283941339</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
         <v>41030</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>27.10000038146973</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>27.10000038146973</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>27.10000038146973</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>27.10000038146973</v>
       </c>
-      <c r="F6" t="n">
-        <v>23.92814064025879</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="F6">
+        <v>23.92813873291016</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>-0.09121392827601527</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>0.08911439465925221</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
         <v>41061</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>27.19000053405762</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>27.27000045776367</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>27.18000030517578</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>27.26000022888184</v>
       </c>
-      <c r="F7" t="n">
-        <v>24.35044479370117</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="F7">
+        <v>24.3504467010498</v>
+      </c>
+      <c r="G7">
         <v>3700</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>0.005904053326933223</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.07719666426828323</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>41091</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>27.98999977111816</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>27.98999977111816</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>27.8799991607666</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>27.8799991607666</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>24.90427207946777</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>2000</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>0.02274390780187452</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>0.0692694520020858</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
         <v>41122</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>29.20000076293945</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>29.20000076293945</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>29.04999923706055</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>29.1200008392334</v>
       </c>
-      <c r="F9" t="n">
-        <v>26.01192474365234</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="F9">
+        <v>26.01192855834961</v>
+      </c>
+      <c r="G9">
         <v>31800</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>0.04447638865828085</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>0.06445687347845433</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
         <v>41153</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>30.53000068664551</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>30.53000068664551</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>30.25</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>30.27000045776367</v>
       </c>
-      <c r="F10" t="n">
-        <v>27.03918266296387</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="F10">
+        <v>27.0391788482666</v>
+      </c>
+      <c r="G10">
         <v>18900</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>0.03949174400369104</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>0.06024392750331733</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
         <v>41183</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>30.38999938964844</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>30.39999961853027</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>30.23999977111816</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>30.27000045776367</v>
       </c>
-      <c r="F11" t="n">
-        <v>27.03918266296387</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="F11">
+        <v>27.0391788482666</v>
+      </c>
+      <c r="G11">
         <v>2000</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.05670997255250021</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
         <v>41214</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>30.64999961853027</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>30.75</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>30.61000061035156</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>30.71999931335449</v>
       </c>
-      <c r="F12" t="n">
-        <v>27.44114875793457</v>
-      </c>
-      <c r="G12" t="n">
+      <c r="F12">
+        <v>27.4411506652832</v>
+      </c>
+      <c r="G12">
         <v>5100</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>0.01486616613100855</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>0.05347069850742251</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
         <v>41244</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>31.70999908447266</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>31.97999954223633</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>31.70999908447266</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>31.97999954223633</v>
       </c>
-      <c r="F13" t="n">
-        <v>28.56666374206543</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="F13">
+        <v>28.56666946411133</v>
+      </c>
+      <c r="G13">
         <v>3800</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>0.04101563336735148</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>0.05125239543580462</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
         <v>41275</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>34.84999847412109</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>35.04999923706055</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>34.79000091552734</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>34.81000137329102</v>
       </c>
-      <c r="F14" t="n">
-        <v>31.09461212158203</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="F14">
+        <v>31.0946044921875</v>
+      </c>
+      <c r="G14">
         <v>600</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>0.08849286652793964</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>0.05283118690159319</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>0.3210626515880686</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>0.3210626515880686</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
         <v>41306</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>34.75</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>34.7599983215332</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>34.58000183105469</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>34.72999954223633</v>
       </c>
-      <c r="F15" t="n">
-        <v>31.02314567565918</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="F15">
+        <v>31.02314376831055</v>
+      </c>
+      <c r="G15">
         <v>56800</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>-0.002298242685967566</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>0.0511347382158598</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>0.1713322087374065</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>0.1713322087374065</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
         <v>41334</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>34.47000122070312</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>34.56000137329102</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>34.41999816894531</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>34.56000137329102</v>
       </c>
-      <c r="F16" t="n">
-        <v>30.87129783630371</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="F16">
+        <v>30.87129592895508</v>
+      </c>
+      <c r="G16">
         <v>7400</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>-0.004894850883558788</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>0.04967743575642662</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>0.1739130688299524</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>0.1739130688299524</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
         <v>41365</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>35.52999877929688</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>35.84999847412109</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>35.5</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>35.83000183105469</v>
       </c>
-      <c r="F17" t="n">
-        <v>32.00574111938477</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>32.0057487487793</v>
+      </c>
+      <c r="G17">
         <v>8600</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>0.03674769697043945</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>0.04804960903249037</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>0.2015426625666132</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>0.2015426625666132</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
         <v>41395</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>36.40000152587891</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>36.40000152587891</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>35.90999984741211</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>35.90999984741211</v>
       </c>
-      <c r="F18" t="n">
-        <v>32.07720184326172</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="F18">
+        <v>32.07720565795898</v>
+      </c>
+      <c r="G18">
         <v>25300</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>0.00223271036196504</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>0.04667631531049968</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>0.3250922266394665</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>0.3250922266394665</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
         <v>41426</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>34.43000030517578</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>34.43000030517578</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>34.15999984741211</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>34.29999923706055</v>
       </c>
-      <c r="F19" t="n">
-        <v>30.6390495300293</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="F19">
+        <v>30.6390438079834</v>
+      </c>
+      <c r="G19">
         <v>8700</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>-0.04483432517941344</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>0.04789472370680067</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>0.2582538132453818</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>0.2582538132453818</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
         <v>41456</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>37.43000030517578</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>37.43000030517578</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>37.43000030517578</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>37.43000030517578</v>
       </c>
-      <c r="F20" t="n">
-        <v>33.43496704101562</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F20">
+        <v>33.43497085571289</v>
+      </c>
+      <c r="G20">
         <v>700</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>0.09125367748502233</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>0.04967709086278745</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>0.3425395061649847</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>0.3425395061649847</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
         <v>41487</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>37.68999862670898</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>37.68999862670898</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>37.66999816894531</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>37.68999862670898</v>
       </c>
-      <c r="F21" t="n">
-        <v>33.66721725463867</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F21">
+        <v>33.66722106933594</v>
+      </c>
+      <c r="G21">
         <v>800</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>0.006946254860095591</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>0.04838250067088842</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>0.2942993660882463</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>0.2942993660882463</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>41518</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>40.45000076293945</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>40.45000076293945</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>40.45000076293945</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>40.45000076293945</v>
       </c>
-      <c r="F22" t="n">
-        <v>36.13263320922852</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="F22">
+        <v>36.13262939453125</v>
+      </c>
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>0.07322903254962165</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>0.04856718942117204</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>0.3363065791617723</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>0.3363065791617723</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>41548</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>42.40999984741211</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>42.40999984741211</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>41.65999984741211</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>41.70999908447266</v>
       </c>
-      <c r="F23" t="n">
-        <v>37.25815582275391</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="F23">
+        <v>37.25814819335938</v>
+      </c>
+      <c r="G23">
         <v>31800</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>0.03114952528474668</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>0.04737282009094167</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>0.3779318947375452</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>0.3779318947375452</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
         <v>41579</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>43.25</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>43.29999923706055</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>43.20999908447266</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>43.22999954223633</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>38.61591339111328</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>2100</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>0.036442111990588</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>0.04631777644252788</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>0.407226579052804</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.407226579052804</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>41609</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>45.0099983215332</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>45.08000183105469</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>44.95000076293945</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>45</v>
       </c>
-      <c r="F25" t="n">
-        <v>40.21219635009766</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F25">
+        <v>40.21219253540039</v>
+      </c>
+      <c r="G25">
         <v>4300</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>0.04094380005797493</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>0.04539441846192326</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>0.4071294760516808</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>0.4071294760516808</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
         <v>41640</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>45.63000106811523</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>45.68000030517578</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>45.63000106811523</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>45.68000030517578</v>
       </c>
-      <c r="F26" t="n">
-        <v>40.81985473632812</v>
-      </c>
-      <c r="G26" t="n">
+      <c r="F26">
+        <v>40.81984329223633</v>
+      </c>
+      <c r="G26">
         <v>2900</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>0.01511111789279518</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>0.04443806136380691</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>0.3122665470569355</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>0.3122665470569355</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
         <v>41671</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>50.90999984741211</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>51.13999938964844</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>50.56999969482422</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>50.9900016784668</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>45.56488418579102</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>5200</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>0.1162434618611279</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>0.04724334390837787</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>0.4681831946601707</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>0.4681831946601707</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
         <v>41699</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>50.83000183105469</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>50.83000183105469</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>49.58000183105469</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>49.58000183105469</v>
       </c>
-      <c r="F28" t="n">
-        <v>44.30489730834961</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F28">
+        <v>44.30490875244141</v>
+      </c>
+      <c r="G28">
         <v>6100</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>-0.02765247697584516</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>0.04754937944962202</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>0.4346064774572482</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>0.4346064774572482</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
         <v>41730</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>51.08000183105469</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>51.33000183105469</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>50.81999969482422</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>50.90000152587891</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>45.48446273803711</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>22500</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>0.02662363142547175</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>0.04662636270103054</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>0.42059723485034</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>0.42059723485034</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
         <v>41760</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>52.5</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>52.7599983215332</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>52.2599983215332</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>52.65000152587891</v>
       </c>
-      <c r="F30" t="n">
-        <v>47.04827117919922</v>
-      </c>
-      <c r="G30" t="n">
+      <c r="F30">
+        <v>47.04826736450195</v>
+      </c>
+      <c r="G30">
         <v>9200</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>0.03438113845851754</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>0.0457841222496381</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>0.4661654622555835</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>0.4661654622555835</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
         <v>41791</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>53</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>53.41999816894531</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>53</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>53.15000152587891</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>47.85863876342773</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>12100</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>0.009496675888114314</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>0.04506365079700764</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>0.5495627611691392</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>0.5495627611691392</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
         <v>41821</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>51.81000137329102</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>51.81000137329102</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>51.06999969482422</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>51.34000015258789</v>
       </c>
-      <c r="F32" t="n">
-        <v>46.22883224487305</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="F32">
+        <v>46.22883605957031</v>
+      </c>
+      <c r="G32">
         <v>28700</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>-0.03405458741915035</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>0.04559299911228007</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>0.3716270300294027</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.3716270300294027</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
         <v>41852</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>50.54000091552734</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>50.68000030517578</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>50.4900016784668</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>50.58000183105469</v>
       </c>
-      <c r="F33" t="n">
-        <v>45.54449462890625</v>
-      </c>
-      <c r="G33" t="n">
+      <c r="F33">
+        <v>45.54450225830078</v>
+      </c>
+      <c r="G33">
         <v>51300</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>-0.0148032395651424</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>0.04535049898619727</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>0.3420006281244918</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>0.3420006281244918</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
         <v>41883</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>49.15000152587891</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>49.2400016784668</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>48.86999893188477</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>48.95999908447266</v>
       </c>
-      <c r="F34" t="n">
-        <v>44.08576583862305</v>
-      </c>
-      <c r="G34" t="n">
+      <c r="F34">
+        <v>44.08576965332031</v>
+      </c>
+      <c r="G34">
         <v>7400</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>-0.03202852289316038</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>0.04563244664400216</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>0.2103831436594217</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>0.2103831436594217</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
         <v>41913</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>48.84999847412109</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>49.29000091552734</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>48.84999847412109</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>49.27999877929688</v>
       </c>
-      <c r="F35" t="n">
-        <v>44.37390899658203</v>
-      </c>
-      <c r="G35" t="n">
+      <c r="F35">
+        <v>44.3739128112793</v>
+      </c>
+      <c r="G35">
         <v>256500</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>0.00653594160147164</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>0.04497982930991846</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>0.1814912457680273</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>0.1814912457680273</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
         <v>41944</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>48.54999923706055</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>49.13000106811523</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>48.54999923706055</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>49.02999877929688</v>
       </c>
-      <c r="F36" t="n">
-        <v>44.14880752563477</v>
-      </c>
-      <c r="G36" t="n">
+      <c r="F36">
+        <v>44.1488037109375</v>
+      </c>
+      <c r="G36">
         <v>10800</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>-0.005073052073715334</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>0.0445031237068035</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>0.1341660721368703</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>0.1341660721368703</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
         <v>41974</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>47.20000076293945</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>47.20000076293945</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>46.9900016784668</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>46.9900016784668</v>
       </c>
-      <c r="F37" t="n">
-        <v>42.31732177734375</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="F37">
+        <v>42.31732559204102</v>
+      </c>
+      <c r="G37">
         <v>6000</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>-0.04160712118335752</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>0.04503895296619311</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>0.04422225952148429</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>0.04422225952148429</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
         <v>42005</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>47.63999938964844</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>47.70000076293945</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>47.31999969482422</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>47.31999969482422</v>
       </c>
-      <c r="F38" t="n">
-        <v>42.6145133972168</v>
-      </c>
-      <c r="G38" t="n">
+      <c r="F38">
+        <v>42.61450576782227</v>
+      </c>
+      <c r="G38">
         <v>37900</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>0.007022728337305884</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>0.04442604300086098</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>0.03590191284352118</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>0.03590191284352118</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
         <v>42036</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>50.7599983215332</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>51.11999893188477</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>50.7599983215332</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>51.02999877929688</v>
       </c>
-      <c r="F39" t="n">
-        <v>45.95558929443359</v>
-      </c>
-      <c r="G39" t="n">
+      <c r="F39">
+        <v>45.95558166503906</v>
+      </c>
+      <c r="G39">
         <v>79900</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>0.07840234802196022</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>0.04494050169677528</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>0.000784410659216972</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.000784410659216972</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
         <v>42064</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>52.81000137329102</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>52.81999969482422</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>52.5</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>52.5</v>
       </c>
-      <c r="F40" t="n">
-        <v>47.2794075012207</v>
-      </c>
-      <c r="G40" t="n">
+      <c r="F40">
+        <v>47.27941131591797</v>
+      </c>
+      <c r="G40">
         <v>11500</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>0.02880660897251497</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>0.0443576756061458</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>0.05889467650475866</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>0.05889467650475866</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
         <v>42095</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>54.70000076293945</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>55.33000183105469</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>54.29999923706055</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>55.15000152587891</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>49.66589736938477</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>13300</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>0.05047621954055059</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>0.04405497253070396</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>0.0834970505421142</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>0.0834970505421142</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
         <v>42125</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>55.95000076293945</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>55.95000076293945</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>55.47999954223633</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>55.56999969482422</v>
       </c>
-      <c r="F42" t="n">
-        <v>50.04412460327148</v>
-      </c>
-      <c r="G42" t="n">
+      <c r="F42">
+        <v>50.04412841796875</v>
+      </c>
+      <c r="G42">
         <v>5300</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>0.007615560422935541</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>0.04353086099310136</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>0.05546055240872216</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>0.05546055240872216</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
         <v>42156</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>54.36000061035156</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>54.36000061035156</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>53.29999923706055</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>53.79999923706055</v>
       </c>
-      <c r="F43" t="n">
-        <v>49.16644668579102</v>
-      </c>
-      <c r="G43" t="n">
+      <c r="F43">
+        <v>49.16644287109375</v>
+      </c>
+      <c r="G43">
         <v>50500</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>-0.03185172696570182</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>0.04373168513607511</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>0.01222949562598141</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>0.01222949562598141</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
         <v>42186</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>56.86000061035156</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>56.86000061035156</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>56.13999938964844</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>56.43000030517578</v>
       </c>
-      <c r="F44" t="n">
-        <v>51.5699348449707</v>
-      </c>
-      <c r="G44" t="n">
+      <c r="F44">
+        <v>51.56993865966797</v>
+      </c>
+      <c r="G44">
         <v>15900</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>0.04888477891099186</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>0.04344922889129261</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>0.09914297112309844</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>0.09914297112309844</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
         <v>42217</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>54.27000045776367</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>54.27000045776367</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>53.95999908447266</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>53.97999954223633</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>49.3309440612793</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>8000</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-0.04341663564929554</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>0.04397796616972521</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>0.06722019747128871</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>0.06722019747128871</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
         <v>42248</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>52.90000152587891</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>53.04000091552734</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>52.68999862670898</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>53.04000091552734</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>48.47190093994141</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>34200</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>-0.01741383169100419</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>0.04378551520455536</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>0.08333337229061821</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>0.08333337229061821</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
         <v>42278</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>53.15999984741211</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>53.34999847412109</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>52.84999847412109</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>52.97999954223633</v>
       </c>
-      <c r="F47" t="n">
-        <v>48.41706848144531</v>
-      </c>
-      <c r="G47" t="n">
+      <c r="F47">
+        <v>48.41707229614258</v>
+      </c>
+      <c r="G47">
         <v>8700</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>-0.001131247591540818</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>0.04336886115420008</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>0.07508118617271298</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>0.07508118617271298</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
         <v>42309</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>55.15000152587891</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>55.2400016784668</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>55.06999969482422</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>55.13000106811523</v>
       </c>
-      <c r="F48" t="n">
-        <v>50.38190460205078</v>
-      </c>
-      <c r="G48" t="n">
+      <c r="F48">
+        <v>50.38190078735352</v>
+      </c>
+      <c r="G48">
         <v>16700</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>0.04058138060505079</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>0.04303052017245091</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>0.1244136740911792</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>0.1244136740911792</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
         <v>42339</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>56.47999954223633</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>56.47999954223633</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>55.84999847412109</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>55.84999847412109</v>
       </c>
-      <c r="F49" t="n">
-        <v>51.04922866821289</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="F49">
+        <v>51.04923248291016</v>
+      </c>
+      <c r="G49">
         <v>17600</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>0.01305999260033164</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>0.04256423263586444</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>0.1885506805528461</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>0.1885506805528461</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
         <v>42370</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>53.83000183105469</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>54.15000152587891</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>53.63000106811523</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>54.11999893188477</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>49.46794509887695</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>15300</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>-0.03097582076099692</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>0.0426740490294507</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>0.1437024361985428</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>0.1437024361985428</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
         <v>42401</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>53.04999923706055</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>53.29999923706055</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>52.90000152587891</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>52.90000152587891</v>
       </c>
-      <c r="F51" t="n">
-        <v>48.35281372070312</v>
-      </c>
-      <c r="G51" t="n">
+      <c r="F51">
+        <v>48.35280990600586</v>
+      </c>
+      <c r="G51">
         <v>11200</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>-0.02254245066673677</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>0.04258425825417343</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>0.03664516541867324</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>0.03664516541867324</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
         <v>42430</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>56.61999893188477</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>56.86000061035156</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>56.5099983215332</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>56.52000045776367</v>
       </c>
-      <c r="F52" t="n">
-        <v>51.66164016723633</v>
-      </c>
-      <c r="G52" t="n">
+      <c r="F52">
+        <v>51.66164398193359</v>
+      </c>
+      <c r="G52">
         <v>159400</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>0.06843097972528134</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>0.04281467707586233</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>0.07657143729073668</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>0.07657143729073668</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
         <v>42461</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>57.33000183105469</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>57.47000122070312</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>57.02999877929688</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>57.25</v>
       </c>
-      <c r="F53" t="n">
-        <v>52.32889556884766</v>
-      </c>
-      <c r="G53" t="n">
+      <c r="F53">
+        <v>52.32889938354492</v>
+      </c>
+      <c r="G53">
         <v>13600</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>0.01291577382031073</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>0.04238695098118451</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>0.03807794045364954</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>0.03807794045364954</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:11">
+      <c r="A54" s="2">
         <v>42491</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>58.56000137329102</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>58.86999893188477</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>58.4900016784668</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>58.58000183105469</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>53.54457473754883</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>61100</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>0.02323147303152284</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>0.04198068681802958</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>0.05416595560123461</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>0.05416595560123461</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:11">
+      <c r="A55" s="2">
         <v>42522</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>54.70000076293945</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>55.47999954223633</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>54.70000076293945</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>55.36000061035156</v>
       </c>
-      <c r="F55" t="n">
-        <v>51.17136001586914</v>
-      </c>
-      <c r="G55" t="n">
+      <c r="F55">
+        <v>51.17135620117188</v>
+      </c>
+      <c r="G55">
         <v>40400</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>-0.05496758484217257</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>0.04271289501003216</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>0.02899630846493384</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>0.02899630846493384</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:11">
+      <c r="A56" s="2">
         <v>42552</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>56.97000122070312</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>57.2400016784668</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>56.97000122070312</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>57.2400016784668</v>
       </c>
-      <c r="F56" t="n">
-        <v>52.90911483764648</v>
-      </c>
-      <c r="G56" t="n">
+      <c r="F56">
+        <v>52.90911865234375</v>
+      </c>
+      <c r="G56">
         <v>8600</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>0.03395955649183469</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>0.04238676874127449</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>0.01435409124420506</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>0.01435409124420506</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:11">
+      <c r="A57" s="2">
         <v>42583</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>56.54999923706055</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>56.54999923706055</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>56.22999954223633</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>56.36000061035156</v>
       </c>
-      <c r="F57" t="n">
-        <v>52.09569549560547</v>
-      </c>
-      <c r="G57" t="n">
+      <c r="F57">
+        <v>52.0956916809082</v>
+      </c>
+      <c r="G57">
         <v>7500</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>-0.01537388263994899</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>0.04219610984560418</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>0.04409042401441687</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>0.04409042401441687</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:11">
+      <c r="A58" s="2">
         <v>42614</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>55.20999908447266</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>55.72000122070312</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>55.11999893188477</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>55.52999877929688</v>
       </c>
-      <c r="F58" t="n">
-        <v>51.32849502563477</v>
-      </c>
-      <c r="G58" t="n">
+      <c r="F58">
+        <v>51.32848739624023</v>
+      </c>
+      <c r="G58">
         <v>18000</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>-0.0147267888940058</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>0.04199620417460621</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>0.04694566027129521</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>0.04694566027129521</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:11">
+      <c r="A59" s="2">
         <v>42644</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>52.52999877929688</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>52.86999893188477</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>52.43999862670898</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>52.86999893188477</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>48.86975479125977</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>62600</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>-0.04790203324124387</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>0.04242585718705426</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>-0.002076266728992082</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>-0.002076266728992082</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:11">
+      <c r="A60" s="2">
         <v>42675</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>49.5099983215332</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>49.5099983215332</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>48.86999893188477</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>48.88999938964844</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>45.19088745117188</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>64300</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>-0.07527897905509651</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>0.04362593534764143</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>-0.113187040768547</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-0.113187040768547</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:11">
+      <c r="A61" s="2">
         <v>42705</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>51.09000015258789</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>51.33000183105469</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>50.93000030517578</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>50.9900016784668</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>47.16224670410156</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>19300</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>0.04295361658897856</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>0.04344000986857272</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>-0.08701874536140308</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>-0.08701874536140308</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:11">
+      <c r="A62" s="2">
         <v>42736</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>53.84000015258789</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>53.97999954223633</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>53.70000076293945</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>53.88000106811523</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>49.83529663085938</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>24400</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>0.05667776612113529</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>0.04345198586896835</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>-0.004434550415856275</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>-0.004434550415856275</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:11">
+      <c r="A63" s="2">
         <v>42767</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>53.36999893188477</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>53.7400016784668</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>53.36999893188477</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>53.52000045776367</v>
       </c>
-      <c r="F63" t="n">
-        <v>49.50231552124023</v>
-      </c>
-      <c r="G63" t="n">
+      <c r="F63">
+        <v>49.5023193359375</v>
+      </c>
+      <c r="G63">
         <v>9000</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>-0.00668152567214042</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>0.04316128966489189</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>0.01172020631382131</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>0.01172020631382131</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:11">
+      <c r="A64" s="2">
         <v>42795</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>55.45000076293945</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>55.58000183105469</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>55.34999847412109</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>55.40000152587891</v>
       </c>
-      <c r="F64" t="n">
-        <v>51.24119186401367</v>
-      </c>
-      <c r="G64" t="n">
+      <c r="F64">
+        <v>51.24119567871094</v>
+      </c>
+      <c r="G64">
         <v>14000</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>0.03512707496329104</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>0.04290167262318924</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.01981597527979007</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>-0.01981597527979007</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:11">
+      <c r="A65" s="2">
         <v>42826</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>59.58000183105469</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>59.58000183105469</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>59.43000030517578</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>59.4900016784668</v>
       </c>
-      <c r="F65" t="n">
-        <v>55.024169921875</v>
-      </c>
-      <c r="G65" t="n">
+      <c r="F65">
+        <v>55.02415466308594</v>
+      </c>
+      <c r="G65">
         <v>27500</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>0.07382671552233333</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>0.0432399685553312</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>0.03912666687278255</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>0.03912666687278255</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:11">
+      <c r="A66" s="2">
         <v>42856</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>62.72000122070312</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>62.88999938964844</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>62.45999908447266</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>62.58000183105469</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>57.88219833374023</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>86200</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>0.05194150387301733</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.04315798042276185</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>0.06828268820366445</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>0.06828268820366445</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:11">
+      <c r="A67" s="2">
         <v>42887</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>62.54000091552734</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>62.86999893188477</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>62.45000076293945</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>62.66999816894531</v>
       </c>
-      <c r="F67" t="n">
-        <v>58.69999313354492</v>
-      </c>
-      <c r="G67" t="n">
+      <c r="F67">
+        <v>58.69998931884766</v>
+      </c>
+      <c r="G67">
         <v>37800</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>0.001438100595356095</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>0.04285016267065887</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>0.1320447521315034</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>0.1320447521315034</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:11">
+      <c r="A68" s="2">
         <v>42917</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>65.58000183105469</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>65.84999847412109</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>65.51000213623047</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>65.84999847412109</v>
       </c>
-      <c r="F68" t="n">
-        <v>61.67854690551758</v>
-      </c>
-      <c r="G68" t="n">
+      <c r="F68">
+        <v>61.67855072021484</v>
+      </c>
+      <c r="G68">
         <v>5800</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>0.0507419881615947</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>0.04275512675606971</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>0.1504192268200668</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>0.1504192268200668</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:11">
+      <c r="A69" s="2">
         <v>42948</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>67.45999908447266</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>67.76999664306641</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>67.34999847412109</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>67.70999908447266</v>
       </c>
-      <c r="F69" t="n">
-        <v>63.42073440551758</v>
-      </c>
-      <c r="G69" t="n">
+      <c r="F69">
+        <v>63.42071914672852</v>
+      </c>
+      <c r="G69">
         <v>7300</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>0.02824602359076045</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>0.04246149181912138</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>0.2013839310008179</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>0.2013839310008179</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:11">
+      <c r="A70" s="2">
         <v>42979</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>67.51000213623047</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>67.91000366210938</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>67.40000152587891</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>67.91000366210938</v>
       </c>
-      <c r="F70" t="n">
-        <v>63.6080436706543</v>
-      </c>
-      <c r="G70" t="n">
+      <c r="F70">
+        <v>63.60806274414062</v>
+      </c>
+      <c r="G70">
         <v>113100</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>0.002953841092025344</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>0.04216898594264727</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>0.2229426464066142</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>0.2229426464066142</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:11">
+      <c r="A71" s="2">
         <v>43009</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>68.26000213623047</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>68.43000030517578</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>68.20999908447266</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>68.41999816894531</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>64.08573913574219</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>8500</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>0.007509858332116259</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>0.04186717859021309</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>0.2941176385703059</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>0.2941176385703059</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:11">
+      <c r="A72" s="2">
         <v>43040</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>66.43000030517578</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>66.68000030517578</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>66.30000305175781</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>66.38999938964844</v>
       </c>
-      <c r="F72" t="n">
-        <v>62.18434906005859</v>
-      </c>
-      <c r="G72" t="n">
+      <c r="F72">
+        <v>62.18434524536133</v>
+      </c>
+      <c r="G72">
         <v>23300</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-0.02966967017865629</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>0.04190078481706322</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>0.3579464147775242</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>0.3579464147775242</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:11">
+      <c r="A73" s="2">
         <v>43070</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>67.40000152587891</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>67.79000091552734</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>67.40000152587891</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>67.58999633789062</v>
       </c>
-      <c r="F73" t="n">
-        <v>63.85404968261719</v>
-      </c>
-      <c r="G73" t="n">
+      <c r="F73">
+        <v>63.85404586791992</v>
+      </c>
+      <c r="G73">
         <v>9200</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>0.01807496549592225</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>0.04160303796699926</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>0.3255539147478406</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>0.3255539147478406</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:11">
+      <c r="A74" s="2">
         <v>43101</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>70.25</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>70.25</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>69.68000030517578</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>69.72000122070312</v>
       </c>
-      <c r="F74" t="n">
-        <v>65.86631774902344</v>
-      </c>
-      <c r="G74" t="n">
+      <c r="F74">
+        <v>65.86632537841797</v>
+      </c>
+      <c r="G74">
         <v>13600</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.03151361145463527</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>0.04135940845291071</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>0.293986633975061</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>0.293986633975061</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:11">
+      <c r="A75" s="2">
         <v>43132</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>68.91999816894531</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>68.91999816894531</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>68.23000335693359</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>68.23999786376953</v>
       </c>
-      <c r="F75" t="n">
-        <v>64.46813201904297</v>
-      </c>
-      <c r="G75" t="n">
+      <c r="F75">
+        <v>64.46811676025391</v>
+      </c>
+      <c r="G75">
         <v>10300</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.02122781599283896</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.04128275289730066</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>0.2750373183875892</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>0.2750373183875892</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:11">
+      <c r="A76" s="2">
         <v>43160</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>68.58999633789062</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>68.98000335693359</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>68.48999786376953</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>68.69000244140625</v>
       </c>
-      <c r="F76" t="n">
-        <v>64.89324188232422</v>
-      </c>
-      <c r="G76" t="n">
+      <c r="F76">
+        <v>64.89326477050781</v>
+      </c>
+      <c r="G76">
         <v>25800</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>0.006594440089741527</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>0.04100792859592801</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>0.2398917066693438</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>0.2398917066693438</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:11">
+      <c r="A77" s="2">
         <v>43191</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>66.97000122070312</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>67.12000274658203</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>66.91999816894531</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>66.91999816894531</v>
       </c>
-      <c r="F77" t="n">
-        <v>63.2210807800293</v>
-      </c>
-      <c r="G77" t="n">
+      <c r="F77">
+        <v>63.22108840942383</v>
+      </c>
+      <c r="G77">
         <v>57200</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>-0.02576800421532643</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>0.04098598503584924</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>0.1248948778088184</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>0.1248948778088184</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:11">
+      <c r="A78" s="2">
         <v>43221</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>66.11000061035156</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>66.11000061035156</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>65.66999816894531</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>66.01999664306641</v>
       </c>
-      <c r="F78" t="n">
-        <v>62.37083435058594</v>
-      </c>
-      <c r="G78" t="n">
+      <c r="F78">
+        <v>62.37081909179688</v>
+      </c>
+      <c r="G78">
         <v>11700</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>-0.01344891737155718</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>0.04082745967556214</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>0.05496955435218065</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>0.05496955435218065</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:11">
+      <c r="A79" s="2">
         <v>43252</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>63.84999847412109</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>64.22000122070312</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>63.84999847412109</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>63.88999938964844</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>61.21242904663086</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>3600</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>-0.03226291065923081</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>0.04088419815453751</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>0.01946706967206624</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>0.01946706967206624</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:11">
+      <c r="A80" s="2">
         <v>43282</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>67.80999755859375</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>68.08999633789062</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>67.66000366210938</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>67.87000274658203</v>
       </c>
-      <c r="F80" t="n">
-        <v>65.025634765625</v>
-      </c>
-      <c r="G80" t="n">
+      <c r="F80">
+        <v>65.02564239501953</v>
+      </c>
+      <c r="G80">
         <v>9100</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>0.06229462192761326</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.04100916093833593</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>0.03067584387651578</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>0.03067584387651578</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:11">
+      <c r="A81" s="2">
         <v>43313</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>67.77999877929688</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>67.77999877929688</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>67.23000335693359</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>67.59999847412109</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>64.76694488525391</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>2900</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>-0.003978256395083646</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>0.04079029180272387</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>-0.001624584431234921</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>-0.001624584431234921</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:11">
+      <c r="A82" s="2">
         <v>43344</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>64.63999938964844</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>64.86000061035156</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>64.55999755859375</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>64.56999969482422</v>
       </c>
-      <c r="F82" t="n">
-        <v>61.86392593383789</v>
-      </c>
-      <c r="G82" t="n">
+      <c r="F82">
+        <v>61.86393737792969</v>
+      </c>
+      <c r="G82">
         <v>21500</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>-0.04482246816110258</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>0.04104020056588451</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>-0.04918279763175337</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>-0.04918279763175337</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:11">
+      <c r="A83" s="2">
         <v>43374</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>58.29999923706055</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>58.31000137329102</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>57.95000076293945</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>57.95000076293945</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>55.5213737487793</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>10700</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-0.1025243760751544</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>0.04272478901161512</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>-0.1530253973429367</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-0.1530253973429367</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:11">
+      <c r="A84" s="2">
         <v>43405</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>58.83000183105469</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>58.83000183105469</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>58.22999954223633</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>58.41999816894531</v>
       </c>
-      <c r="F84" t="n">
-        <v>55.97167587280273</v>
-      </c>
-      <c r="G84" t="n">
+      <c r="F84">
+        <v>55.97167205810547</v>
+      </c>
+      <c r="G84">
         <v>28700</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>0.008110395165109807</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>0.04246117731021379</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>-0.1200482195206318</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-0.1200482195206318</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:11">
+      <c r="A85" s="2">
         <v>43435</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>57</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>57.06000137329102</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>56.59999847412109</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>56.81000137329102</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>54.63984298706055</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>7300</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-0.02755900113174148</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>0.04240923556696467</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>-0.159490983113967</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-0.159490983113967</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:11">
+      <c r="A86" s="2">
         <v>43466</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>59.15000152587891</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>59.43000030517578</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>58.93999862670898</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>59.16999816894531</v>
       </c>
-      <c r="F86" t="n">
-        <v>56.90968704223633</v>
-      </c>
-      <c r="G86" t="n">
+      <c r="F86">
+        <v>56.90969085693359</v>
+      </c>
+      <c r="G86">
         <v>51200</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>0.04154192463659823</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>0.04229166016487586</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>-0.151319605092391</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-0.151319605092391</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:11">
+      <c r="A87" s="2">
         <v>43497</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>61.84000015258789</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>62.16999816894531</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>61.84000015258789</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>62.08000183105469</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>59.70853042602539</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>6400</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.04918039128209162</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>0.04224744837682679</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>-0.09026958126540852</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-0.09026958126540852</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:11">
+      <c r="A88" s="2">
         <v>43525</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>62.88000106811523</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>63.04999923706055</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>62.88000106811523</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>63.04999923706055</v>
       </c>
-      <c r="F88" t="n">
-        <v>60.6414680480957</v>
-      </c>
-      <c r="G88" t="n">
+      <c r="F88">
+        <v>60.64147186279297</v>
+      </c>
+      <c r="G88">
         <v>2500</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>0.01562495775444117</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>0.04200115191444728</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>-0.08210806527713732</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-0.08210806527713732</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:11">
+      <c r="A89" s="2">
         <v>43556</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>64.25</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>64.36000061035156</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>64</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>64.29000091552734</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>61.83410263061523</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>8300</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>0.01966695786632022</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>0.04176644030321192</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>-0.03930061753406378</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>-0.03930061753406378</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:11">
+      <c r="A90" s="2">
         <v>43586</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>60.95000076293945</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>61.16999816894531</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>60.86000061035156</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>61.16999816894531</v>
       </c>
-      <c r="F90" t="n">
-        <v>58.83328628540039</v>
-      </c>
-      <c r="G90" t="n">
+      <c r="F90">
+        <v>58.83329010009766</v>
+      </c>
+      <c r="G90">
         <v>19100</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>-0.0485301400241307</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>0.04201036190204152</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>-0.07346256771781356</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>-0.07346256771781356</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:11">
+      <c r="A91" s="2">
         <v>43617</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>62.22000122070312</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>62.38000106811523</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>62.22000122070312</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>62.38000106811523</v>
       </c>
-      <c r="F91" t="n">
-        <v>61.47556304931641</v>
-      </c>
-      <c r="G91" t="n">
+      <c r="F91">
+        <v>61.47555923461914</v>
+      </c>
+      <c r="G91">
         <v>700</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>0.01978098635589332</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>0.04178261679215959</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>-0.02363434553073196</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>-0.02363434553073196</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:11">
+      <c r="A92" s="2">
         <v>43647</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>60.66999816894531</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>60.7599983215332</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>59.86000061035156</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>60.09000015258789</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>59.21875762939453</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>4700</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>-0.03671049817756178</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>0.04184525655815156</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>-0.1146309456188426</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>-0.1146309456188426</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:11">
+      <c r="A93" s="2">
         <v>43678</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>60.9900016784668</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>61.11000061035156</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>60.68999862670898</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>60.79999923706055</v>
       </c>
-      <c r="F93" t="n">
-        <v>59.91846466064453</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="F93">
+        <v>59.91846084594727</v>
+      </c>
+      <c r="G93">
         <v>10200</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>0.01181559465251691</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>0.0416125407486674</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>-0.1005917069608182</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>-0.1005917069608182</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:11">
+      <c r="A94" s="2">
         <v>43709</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>60.84999847412109</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>60.91999816894531</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>60.77999877929688</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>60.83000183105469</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>59.94802856445312</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>1000</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>0.0004934637232010264</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>0.0413953332007754</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>-0.05792160262421875</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>-0.05792160262421875</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:11">
+      <c r="A95" s="2">
         <v>43739</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>62.68999862670898</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>62.72999954223633</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>62.54999923706055</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>62.72999954223633</v>
       </c>
-      <c r="F95" t="n">
-        <v>61.82047653198242</v>
-      </c>
-      <c r="G95" t="n">
+      <c r="F95">
+        <v>61.82048034667969</v>
+      </c>
+      <c r="G95">
         <v>6000</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>0.03123454962994354</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>0.04122872639906538</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>0.08248487862581366</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>0.08248487862581366</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:11">
+      <c r="A96" s="2">
         <v>43770</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>65.34999847412109</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>65.34999847412109</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>65.26000213623047</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>65.26000213623047</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>64.31380462646484</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>3000</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>0.04033162143243252</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>0.04112404412796106</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>0.1170832622675626</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>0.1170832622675626</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:11">
+      <c r="A97" s="2">
         <v>43800</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>68.70999908447266</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>68.90000152587891</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>68.47000122070312</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>68.84999847412109</v>
       </c>
-      <c r="F97" t="n">
-        <v>67.95658111572266</v>
-      </c>
-      <c r="G97" t="n">
+      <c r="F97">
+        <v>67.95657348632812</v>
+      </c>
+      <c r="G97">
         <v>11100</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>0.05501066840905855</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>0.04115857372442283</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>0.2119344624147577</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>0.2119344624147577</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:11">
+      <c r="A98" s="2">
         <v>43831</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>69.63999938964844</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>69.63999938964844</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>69.13999938964844</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>69.23999786376953</v>
       </c>
-      <c r="F98" t="n">
-        <v>68.34151458740234</v>
-      </c>
-      <c r="G98" t="n">
+      <c r="F98">
+        <v>68.34150695800781</v>
+      </c>
+      <c r="G98">
         <v>7900</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>0.00566447927802094</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>0.04094498703834184</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>0.1701875951740242</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>0.1701875951740242</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:11">
+      <c r="A99" s="2">
         <v>43862</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>65.48999786376953</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>65.59999847412109</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>64.84999847412109</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>65.51999664306641</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>64.66978454589844</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>12200</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>-0.05372618913163851</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>0.04125693020161275</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>0.05541228593023195</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>0.05541228593023195</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:11">
+      <c r="A100" s="2">
         <v>43891</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>59.83000183105469</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>60.16999816894531</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>59.83000183105469</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>60.06000137329102</v>
       </c>
-      <c r="F100" t="n">
-        <v>59.2806396484375</v>
-      </c>
-      <c r="G100" t="n">
+      <c r="F100">
+        <v>59.28064346313477</v>
+      </c>
+      <c r="G100">
         <v>2200</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>-0.08333326540780872</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>0.04211876100192706</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>-0.04742264710468103</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>-0.04742264710468103</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:11">
+      <c r="A101" s="2">
         <v>43922</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>65.44999694824219</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>65.90000152587891</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>65.26000213623047</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>65.66999816894531</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>64.81784820556641</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>5700</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>0.09340653791841391</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>0.04274712515805674</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>0.02146519262351831</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>0.02146519262351831</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:11">
+      <c r="A102" s="2">
         <v>43952</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>72.02999877929688</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>72.27999877929688</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>71.44000244140625</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>72.08000183105469</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>71.14466094970703</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>7500</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>0.09760931690021879</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>0.0434203358243174</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>0.1783554681819191</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>0.1783554681819191</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:11">
+      <c r="A103" s="2">
         <v>43983</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>73.73999786376953</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>73.73999786376953</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>73.08000183105469</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>73.68000030517578</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>73.08929443359375</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>5500</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>0.02219753653546319</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>0.04321695500754568</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>0.1811477884510073</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>0.1811477884510073</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:11">
+      <c r="A104" s="2">
         <v>44013</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>81.23999786376953</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>81.23999786376953</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>79.55999755859375</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>79.75</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>79.11063385009766</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>29000</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>0.08238327456138483</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>0.04357707221968089</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>0.3271758994423204</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>0.3271758994423204</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:11">
+      <c r="A105" s="2">
         <v>44044</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>84.23000335693359</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>84.33000183105469</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>83.97000122070312</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>83.97000122070312</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>83.29679870605469</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>16400</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>0.05291537580818972</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>0.04355133143222953</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>0.3810855637234833</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>0.3810855637234833</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:11">
+      <c r="A106" s="2">
         <v>44075</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>85.08000183105469</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>85.08000183105469</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>84.5</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>84.66000366210938</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>83.98126983642578</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>12500</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>0.008217249391156756</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.04334120216923242</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>0.3917475113224325</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>0.3917475113224325</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:11">
+      <c r="A107" s="2">
         <v>44105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>83.08000183105469</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>83.08000183105469</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>82.34999847412109</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>82.52999877929688</v>
       </c>
-      <c r="F107" t="n">
-        <v>81.86833190917969</v>
-      </c>
-      <c r="G107" t="n">
+      <c r="F107">
+        <v>81.86833953857422</v>
+      </c>
+      <c r="G107">
         <v>12100</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>-0.02515951796214966</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.04328620653765526</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>0.3156384406432067</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>0.3156384406432067</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:11">
+      <c r="A108" s="2">
         <v>44136</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>92.43000030517578</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>92.51999664306641</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>90.93000030517578</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>91.09999847412109</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>90.36962890625</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>55000</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.1038410253433089</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.04399638333526365</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>0.3959545738896781</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>0.3959545738896781</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:11">
+      <c r="A109" s="2">
         <v>44166</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>98</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>98.12999725341797</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>97.19000244140625</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>97.61000061035156</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>96.87652587890625</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>20100</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>0.07145995878451927</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>0.04415504335133285</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>0.4177197207497485</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>0.4177197207497485</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:11">
+      <c r="A110" s="2">
         <v>44197</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>94.65000152587891</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>94.65000152587891</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>93.33999633789062</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>93.70999908447266</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>93.00582885742188</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>24500</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>-0.03995493803393446</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>0.04424562728324995</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>0.3534084629645444</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>0.3534084629645444</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:11">
+      <c r="A111" s="2">
         <v>44228</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>95.69999694824219</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>95.69999694824219</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>94.31999969482422</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>94.31999969482422</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>93.61124420166016</v>
       </c>
-      <c r="G111" t="n">
+      <c r="G111">
         <v>15400</v>
       </c>
-      <c r="H111" t="n">
+      <c r="H111">
         <v>0.006509450606244194</v>
       </c>
-      <c r="I111" t="n">
+      <c r="I111">
         <v>0.04404439950519769</v>
       </c>
-      <c r="J111" t="n">
+      <c r="J111">
         <v>0.4395605086589325</v>
       </c>
-      <c r="K111" t="n">
+      <c r="K111">
         <v>0.4395605086589325</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:11">
+      <c r="A112" s="2">
         <v>44256</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>96.55999755859375</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>97.47000122070312</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>96.55999755859375</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>96.87000274658203</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>96.14208984375</v>
       </c>
-      <c r="G112" t="n">
+      <c r="G112">
         <v>52200</v>
       </c>
-      <c r="H112" t="n">
+      <c r="H112">
         <v>0.02703565585250689</v>
       </c>
-      <c r="I112" t="n">
+      <c r="I112">
         <v>0.04386314369852935</v>
       </c>
-      <c r="J112" t="n">
+      <c r="J112">
         <v>0.6128871217385721</v>
       </c>
-      <c r="K112" t="n">
+      <c r="K112">
         <v>0.6128871217385721</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:11">
+      <c r="A113" s="2">
         <v>44287</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>104.2200012207031</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>104.2600021362305</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>103.4100036621094</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>103.6600036621094</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>102.8810653686523</v>
       </c>
-      <c r="G113" t="n">
+      <c r="G113">
         <v>11600</v>
       </c>
-      <c r="H113" t="n">
+      <c r="H113">
         <v>0.07009394779610378</v>
       </c>
-      <c r="I113" t="n">
+      <c r="I113">
         <v>0.04400008951597798</v>
       </c>
-      <c r="J113" t="n">
+      <c r="J113">
         <v>0.5784986531510086</v>
       </c>
-      <c r="K113" t="n">
+      <c r="K113">
         <v>0.5784986531510086</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:11">
+      <c r="A114" s="2">
         <v>44317</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>107.4700012207031</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>108.2900009155273</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>107.4700012207031</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>108.0500030517578</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>107.2380828857422</v>
       </c>
-      <c r="G114" t="n">
+      <c r="G114">
         <v>10700</v>
       </c>
-      <c r="H114" t="n">
+      <c r="H114">
         <v>0.04234998296891934</v>
       </c>
-      <c r="I114" t="n">
+      <c r="I114">
         <v>0.04388699198943582</v>
       </c>
-      <c r="J114" t="n">
+      <c r="J114">
         <v>0.4990288610842673</v>
       </c>
-      <c r="K114" t="n">
+      <c r="K114">
         <v>0.4990288610842673</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:11">
+      <c r="A115" s="2">
         <v>44348</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>107.9800033569336</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>108.4000015258789</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>107.5999984741211</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>108.120002746582</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>108.0921249389648</v>
       </c>
-      <c r="G115" t="n">
+      <c r="G115">
         <v>31300</v>
       </c>
-      <c r="H115" t="n">
+      <c r="H115">
         <v>0.0006478453757257085</v>
       </c>
-      <c r="I115" t="n">
+      <c r="I115">
         <v>0.04370767479023526</v>
       </c>
-      <c r="J115" t="n">
+      <c r="J115">
         <v>0.4674267412969453</v>
       </c>
-      <c r="K115" t="n">
+      <c r="K115">
         <v>0.4674267412969453</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:11">
+      <c r="A116" s="2">
         <v>44378</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>112.5</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>112.5199966430664</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>111.9000015258789</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>112.1399993896484</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>112.111083984375</v>
       </c>
-      <c r="G116" t="n">
+      <c r="G116">
         <v>8500</v>
       </c>
-      <c r="H116" t="n">
+      <c r="H116">
         <v>0.03718087810715942</v>
       </c>
-      <c r="I116" t="n">
+      <c r="I116">
         <v>0.04357029783367193</v>
       </c>
-      <c r="J116" t="n">
+      <c r="J116">
         <v>0.406144192973648</v>
       </c>
-      <c r="K116" t="n">
+      <c r="K116">
         <v>0.406144192973648</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:11">
+      <c r="A117" s="2">
         <v>44409</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>116.25</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>116.25</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>114.8600006103516</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>114.9899978637695</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>114.9603500366211</v>
       </c>
-      <c r="G117" t="n">
+      <c r="G117">
         <v>6300</v>
       </c>
-      <c r="H117" t="n">
+      <c r="H117">
         <v>0.02541464677753669</v>
       </c>
-      <c r="I117" t="n">
+      <c r="I117">
         <v>0.04339249514417814</v>
       </c>
-      <c r="J117" t="n">
+      <c r="J117">
         <v>0.3694176038122803</v>
       </c>
-      <c r="K117" t="n">
+      <c r="K117">
         <v>0.3694176038122803</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:11">
+      <c r="A118" s="2">
         <v>44440</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>107.9499969482422</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>108.2200012207031</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>107.2600021362305</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>107.3000030517578</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>107.2723388671875</v>
       </c>
-      <c r="G118" t="n">
+      <c r="G118">
         <v>33700</v>
       </c>
-      <c r="H118" t="n">
+      <c r="H118">
         <v>-0.06687533659338074</v>
       </c>
-      <c r="I118" t="n">
+      <c r="I118">
         <v>0.04384823195333051</v>
       </c>
-      <c r="J118" t="n">
+      <c r="J118">
         <v>0.2674226129260286</v>
       </c>
-      <c r="K118" t="n">
+      <c r="K118">
         <v>0.2674226129260286</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:11">
+      <c r="A119" s="2">
         <v>44470</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>114.1399993896484</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>114.1399993896484</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>113.379997253418</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>114.0100021362305</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>113.9806060791016</v>
       </c>
-      <c r="G119" t="n">
+      <c r="G119">
         <v>33200</v>
       </c>
-      <c r="H119" t="n">
+      <c r="H119">
         <v>0.06253493843085889</v>
       </c>
-      <c r="I119" t="n">
+      <c r="I119">
         <v>0.04389717183669144</v>
       </c>
-      <c r="J119" t="n">
+      <c r="J119">
         <v>0.3814370995099363</v>
       </c>
-      <c r="K119" t="n">
+      <c r="K119">
         <v>0.3814370995099363</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:11">
+      <c r="A120" s="2">
         <v>44501</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>107.9599990844727</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>108.379997253418</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>105.8399963378906</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>106.7799987792969</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>106.7524642944336</v>
       </c>
-      <c r="G120" t="n">
+      <c r="G120">
         <v>32100</v>
       </c>
-      <c r="H120" t="n">
+      <c r="H120">
         <v>-0.06341551812528223</v>
       </c>
-      <c r="I120" t="n">
+      <c r="I120">
         <v>0.04427962184936689</v>
       </c>
-      <c r="J120" t="n">
+      <c r="J120">
         <v>0.1721185572756077</v>
       </c>
-      <c r="K120" t="n">
+      <c r="K120">
         <v>0.1721185572756077</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:11">
+      <c r="A121" s="2">
         <v>44531</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>111.3300018310547</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>111.6600036621094</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>111.1699981689453</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>111.2200012207031</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>111.2200012207031</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G121">
         <v>5300</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121">
         <v>0.04158084371758863</v>
       </c>
-      <c r="I121" t="n">
+      <c r="I121">
         <v>0.04416996045989754</v>
       </c>
-      <c r="J121" t="n">
+      <c r="J121">
         <v>0.139432440582407</v>
       </c>
-      <c r="K121" t="n">
+      <c r="K121">
         <v>0.139432440582407</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:11">
+      <c r="A122" s="2">
         <v>44562</v>
       </c>
-      <c r="B122" t="n">
-        <v>109.879997253418</v>
-      </c>
-      <c r="C122" t="n">
-        <v>109.879997253418</v>
-      </c>
-      <c r="D122" t="n">
-        <v>109.5749969482422</v>
-      </c>
-      <c r="E122" t="n">
-        <v>109.5749969482422</v>
-      </c>
-      <c r="F122" t="n">
-        <v>109.5749969482422</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1294</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-0.01479054355696885</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.04405778286478391</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.1692988797221993</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.1692988797221993</v>
+      <c r="B122">
+        <v>103.8899993896484</v>
+      </c>
+      <c r="C122">
+        <v>103.6399993896484</v>
+      </c>
+      <c r="D122">
+        <v>103.5466995239258</v>
+      </c>
+      <c r="E122">
+        <v>103.5820007324219</v>
+      </c>
+      <c r="F122">
+        <v>103.5820007324219</v>
+      </c>
+      <c r="G122">
+        <v>4635</v>
+      </c>
+      <c r="H122">
+        <v>-0.0686747024316654</v>
+      </c>
+      <c r="I122">
+        <v>0.04461346523471172</v>
+      </c>
+      <c r="J122">
+        <v>0.1053462996947672</v>
+      </c>
+      <c r="K122">
+        <v>0.1053462996947672</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>